--- a/ebs_with_tracing/forms/app/locator.xlsx
+++ b/ebs_with_tracing/forms/app/locator.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="852">
   <si>
     <t>list_name</t>
   </si>
@@ -2531,543 +2531,6 @@
     <t>Groupe</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Masculin</t>
-  </si>
-  <si>
-    <t>Femme</t>
-  </si>
-  <si>
-    <t>Iles Aland</t>
-  </si>
-  <si>
-    <t>Albanie</t>
-  </si>
-  <si>
-    <t>Algérie</t>
-  </si>
-  <si>
-    <t>Samoa américaines</t>
-  </si>
-  <si>
-    <t>Andorre</t>
-  </si>
-  <si>
-    <t>Antarctique</t>
-  </si>
-  <si>
-    <t>Antigua-et-Barbuda</t>
-  </si>
-  <si>
-    <t>Argentine</t>
-  </si>
-  <si>
-    <t>Arménie</t>
-  </si>
-  <si>
-    <t>Australie</t>
-  </si>
-  <si>
-    <t>L'Autriche</t>
-  </si>
-  <si>
-    <t>Azerbaïdjan</t>
-  </si>
-  <si>
-    <t>Bahreïn</t>
-  </si>
-  <si>
-    <t>Barbade</t>
-  </si>
-  <si>
-    <t>Biélorussie</t>
-  </si>
-  <si>
-    <t>Belgique</t>
-  </si>
-  <si>
-    <t>Bénin</t>
-  </si>
-  <si>
-    <t>Bermudes</t>
-  </si>
-  <si>
-    <t>Bhoutan</t>
-  </si>
-  <si>
-    <t>Bolivie, État plurinational de</t>
-  </si>
-  <si>
-    <t>Bonaire, Saint-Eustache et Saba</t>
-  </si>
-  <si>
-    <t>Bosnie Herzégovine</t>
-  </si>
-  <si>
-    <t>Île Bouvet</t>
-  </si>
-  <si>
-    <t>Brésil</t>
-  </si>
-  <si>
-    <t>Territoire britannique de l'océan Indien</t>
-  </si>
-  <si>
-    <t>Bulgarie</t>
-  </si>
-  <si>
-    <t>Cambodge</t>
-  </si>
-  <si>
-    <t>Cameroun</t>
-  </si>
-  <si>
-    <t>Cap-Vert</t>
-  </si>
-  <si>
-    <t>Îles Caïmans</t>
-  </si>
-  <si>
-    <t>République centrafricaine</t>
-  </si>
-  <si>
-    <t>Tchad</t>
-  </si>
-  <si>
-    <t>Chili</t>
-  </si>
-  <si>
-    <t>Chine</t>
-  </si>
-  <si>
-    <t>L'île de noël</t>
-  </si>
-  <si>
-    <t>Îles Cocos (Keeling)</t>
-  </si>
-  <si>
-    <t>Colombie</t>
-  </si>
-  <si>
-    <t>Comores</t>
-  </si>
-  <si>
-    <t>Congo, la République démocratique du</t>
-  </si>
-  <si>
-    <t>les Îles Cook</t>
-  </si>
-  <si>
-    <t>Croatie</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Chypre</t>
-  </si>
-  <si>
-    <t>République Tchèque</t>
-  </si>
-  <si>
-    <t>Danemark</t>
-  </si>
-  <si>
-    <t>Dominique</t>
-  </si>
-  <si>
-    <t>République Dominicaine</t>
-  </si>
-  <si>
-    <t>Equateur</t>
-  </si>
-  <si>
-    <t>Egypte</t>
-  </si>
-  <si>
-    <t>Le Salvador</t>
-  </si>
-  <si>
-    <t>Guinée Équatoriale</t>
-  </si>
-  <si>
-    <t>Érythrée</t>
-  </si>
-  <si>
-    <t>Estonie</t>
-  </si>
-  <si>
-    <t>Ethiopie</t>
-  </si>
-  <si>
-    <t>Îles Falkland (Malvinas)</t>
-  </si>
-  <si>
-    <t>Îles Féroé</t>
-  </si>
-  <si>
-    <t>Fidji</t>
-  </si>
-  <si>
-    <t>Finlande</t>
-  </si>
-  <si>
-    <t>Guyane Française</t>
-  </si>
-  <si>
-    <t>Polynésie française</t>
-  </si>
-  <si>
-    <t>Terres australes françaises</t>
-  </si>
-  <si>
-    <t>Gambie</t>
-  </si>
-  <si>
-    <t>Géorgie</t>
-  </si>
-  <si>
-    <t>Allemagne</t>
-  </si>
-  <si>
-    <t>Grèce</t>
-  </si>
-  <si>
-    <t>Groenland</t>
-  </si>
-  <si>
-    <t>Grenade</t>
-  </si>
-  <si>
-    <t>Guernesey</t>
-  </si>
-  <si>
-    <t>Guinée</t>
-  </si>
-  <si>
-    <t>Guinée-Bissau</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Les îles Heard et McDonald</t>
-  </si>
-  <si>
-    <t>Saint-Siège (Cité du Vatican)</t>
-  </si>
-  <si>
-    <t>Hongrie</t>
-  </si>
-  <si>
-    <t>Islande</t>
-  </si>
-  <si>
-    <t>Inde</t>
-  </si>
-  <si>
-    <t>Indonésie</t>
-  </si>
-  <si>
-    <t>Iran (République islamique d</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
-    <t>Irlande</t>
-  </si>
-  <si>
-    <t>île de Man</t>
-  </si>
-  <si>
-    <t>Israël</t>
-  </si>
-  <si>
-    <t>Italie</t>
-  </si>
-  <si>
-    <t>Jamaïque</t>
-  </si>
-  <si>
-    <t>Japon</t>
-  </si>
-  <si>
-    <t>République populaire démocratique de Corée</t>
-  </si>
-  <si>
-    <t>Corée, République de</t>
-  </si>
-  <si>
-    <t>Koweit</t>
-  </si>
-  <si>
-    <t>Kirghizistan</t>
-  </si>
-  <si>
-    <t>République démocratique populaire lao</t>
-  </si>
-  <si>
-    <t>Lettonie</t>
-  </si>
-  <si>
-    <t>Liban</t>
-  </si>
-  <si>
-    <t>Libéria</t>
-  </si>
-  <si>
-    <t>Libye</t>
-  </si>
-  <si>
-    <t>Lituanie</t>
-  </si>
-  <si>
-    <t>Macédoine, l'ex-République yougoslave de</t>
-  </si>
-  <si>
-    <t>Malaisie</t>
-  </si>
-  <si>
-    <t>Malte</t>
-  </si>
-  <si>
-    <t>Iles Marshall</t>
-  </si>
-  <si>
-    <t>Mauritanie</t>
-  </si>
-  <si>
-    <t>Ile Maurice</t>
-  </si>
-  <si>
-    <t>Mexique</t>
-  </si>
-  <si>
-    <t>Micronésie, États fédérés de</t>
-  </si>
-  <si>
-    <t>Moldova, République de</t>
-  </si>
-  <si>
-    <t>Mongolie</t>
-  </si>
-  <si>
-    <t>Monténégro</t>
-  </si>
-  <si>
-    <t>Maroc</t>
-  </si>
-  <si>
-    <t>Namibie</t>
-  </si>
-  <si>
-    <t>Népal</t>
-  </si>
-  <si>
-    <t>Pays-Bas</t>
-  </si>
-  <si>
-    <t>Nouvelle Calédonie</t>
-  </si>
-  <si>
-    <t>Nouvelle-Zélande</t>
-  </si>
-  <si>
-    <t>l'ile de Norfolk</t>
-  </si>
-  <si>
-    <t>Îles Mariannes du Nord</t>
-  </si>
-  <si>
-    <t>Norvège</t>
-  </si>
-  <si>
-    <t>Territoires palestiniens</t>
-  </si>
-  <si>
-    <t>Papouasie Nouvelle Guinée</t>
-  </si>
-  <si>
-    <t>Pérou</t>
-  </si>
-  <si>
-    <t>Pologne</t>
-  </si>
-  <si>
-    <t>le Portugal</t>
-  </si>
-  <si>
-    <t>Porto Rico</t>
-  </si>
-  <si>
-    <t>Roumanie</t>
-  </si>
-  <si>
-    <t>Fédération Russe</t>
-  </si>
-  <si>
-    <t>Sainte-Hélène, Ascension et Tristan da Cunha</t>
-  </si>
-  <si>
-    <t>Saint-Christophe-et-Niévès</t>
-  </si>
-  <si>
-    <t>Sainte-Lucie</t>
-  </si>
-  <si>
-    <t>Saint Martin (partie française)</t>
-  </si>
-  <si>
-    <t>Saint-Pierre-et-Miquelon</t>
-  </si>
-  <si>
-    <t>Saint-Vincent-et-les-Grenadines</t>
-  </si>
-  <si>
-    <t>Saint Marin</t>
-  </si>
-  <si>
-    <t>Sao Tomé-et-Principe</t>
-  </si>
-  <si>
-    <t>Arabie Saoudite</t>
-  </si>
-  <si>
-    <t>Sénégal</t>
-  </si>
-  <si>
-    <t>Serbie</t>
-  </si>
-  <si>
-    <t>les Seychelles</t>
-  </si>
-  <si>
-    <t>Singapour</t>
-  </si>
-  <si>
-    <t>Sint Maarten (partie néerlandaise)</t>
-  </si>
-  <si>
-    <t>Slovaquie</t>
-  </si>
-  <si>
-    <t>Slovénie</t>
-  </si>
-  <si>
-    <t>îles Salomon</t>
-  </si>
-  <si>
-    <t>Somalie</t>
-  </si>
-  <si>
-    <t>Afrique du Sud</t>
-  </si>
-  <si>
-    <t>Géorgie du Sud et les îles Sandwich du Sud</t>
-  </si>
-  <si>
-    <t>Soudan du sud</t>
-  </si>
-  <si>
-    <t>Espagne</t>
-  </si>
-  <si>
-    <t>Soudan</t>
-  </si>
-  <si>
-    <t>Spitzberg et Jan Mayen</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
-    <t>Suisse</t>
-  </si>
-  <si>
-    <t>République arabe syrienne</t>
-  </si>
-  <si>
-    <t>Taiwan, Province de Chine</t>
-  </si>
-  <si>
-    <t>Tadjikistan</t>
-  </si>
-  <si>
-    <t>Tanzanie, République-Unie de</t>
-  </si>
-  <si>
-    <t>Thaïlande</t>
-  </si>
-  <si>
-    <t>Aller</t>
-  </si>
-  <si>
-    <t>Trinité-et-Tobago</t>
-  </si>
-  <si>
-    <t>Tunisie</t>
-  </si>
-  <si>
-    <t>dinde</t>
-  </si>
-  <si>
-    <t>Turkménistan</t>
-  </si>
-  <si>
-    <t>îles Turques-et-Caïques</t>
-  </si>
-  <si>
-    <t>Ouganda</t>
-  </si>
-  <si>
-    <t>Emirats Arabes Unis</t>
-  </si>
-  <si>
-    <t>Royaume-Uni</t>
-  </si>
-  <si>
-    <t>États Unis</t>
-  </si>
-  <si>
-    <t>Îles mineures éloignées des États-Unis</t>
-  </si>
-  <si>
-    <t>Ouzbékistan</t>
-  </si>
-  <si>
-    <t>Venezuela, République bolivarienne du</t>
-  </si>
-  <si>
-    <t>Îles Vierges britanniques</t>
-  </si>
-  <si>
-    <t>Îles Vierges américaines,</t>
-  </si>
-  <si>
-    <t>Wallis et Futuna</t>
-  </si>
-  <si>
-    <t>Sahara occidental</t>
-  </si>
-  <si>
-    <t>Yémen</t>
-  </si>
-  <si>
-    <t>Zambie</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
     <t>1. Nom de la compagnie aérienne</t>
   </si>
   <si>
@@ -3105,12 +2568,30 @@
   </si>
   <si>
     <t>Nom</t>
+  </si>
+  <si>
+    <t>label::sh</t>
+  </si>
+  <si>
+    <t>Kwete</t>
+  </si>
+  <si>
+    <t>Hongu</t>
+  </si>
+  <si>
+    <t>Murume</t>
+  </si>
+  <si>
+    <t>Mukadzi</t>
+  </si>
+  <si>
+    <t>Imwe nyika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -3397,6 +2878,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3664,36 +3148,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23:D96"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" customWidth="1"/>
-    <col min="8" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="73.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="4" width="43.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="73.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="28" width="29.83203125" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="28" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3704,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>338</v>
+        <v>846</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
@@ -3763,7 +3247,7 @@
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -3803,7 +3287,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -3841,7 +3325,7 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -3877,7 +3361,7 @@
       <c r="AA4" s="19"/>
       <c r="AB4" s="19"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -3913,7 +3397,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
@@ -3951,7 +3435,7 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -3987,7 +3471,7 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -4023,7 +3507,7 @@
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>39</v>
       </c>
@@ -4059,7 +3543,7 @@
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -4095,7 +3579,7 @@
       <c r="AA10" s="28"/>
       <c r="AB10" s="28"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -4131,7 +3615,7 @@
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -4167,7 +3651,7 @@
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>39</v>
       </c>
@@ -4203,7 +3687,7 @@
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
@@ -4239,7 +3723,7 @@
       <c r="AA14" s="28"/>
       <c r="AB14" s="28"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>128</v>
       </c>
@@ -4271,7 +3755,7 @@
       <c r="AA15" s="28"/>
       <c r="AB15" s="28"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>128</v>
       </c>
@@ -4305,7 +3789,7 @@
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>128</v>
       </c>
@@ -4341,7 +3825,7 @@
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -4371,7 +3855,7 @@
       <c r="AA18" s="35"/>
       <c r="AB18" s="35"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>192</v>
       </c>
@@ -4411,7 +3895,7 @@
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>192</v>
       </c>
@@ -4451,7 +3935,7 @@
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>192</v>
       </c>
@@ -4491,7 +3975,7 @@
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -4521,7 +4005,7 @@
       <c r="AA22" s="46"/>
       <c r="AB22" s="46"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>29</v>
       </c>
@@ -4561,7 +4045,7 @@
       <c r="AA23" s="51"/>
       <c r="AB23" s="51"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
         <v>393</v>
       </c>
@@ -4572,7 +4056,7 @@
         <v>396</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>1012</v>
+        <v>833</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
@@ -4599,7 +4083,7 @@
       <c r="AA24" s="51"/>
       <c r="AB24" s="51"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>393</v>
       </c>
@@ -4637,7 +4121,7 @@
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
         <v>393</v>
       </c>
@@ -4675,7 +4159,7 @@
       <c r="AA26" s="52"/>
       <c r="AB26" s="52"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
         <v>416</v>
       </c>
@@ -4715,7 +4199,7 @@
       <c r="AA27" s="52"/>
       <c r="AB27" s="52"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
         <v>427</v>
       </c>
@@ -4755,7 +4239,7 @@
       <c r="AA28" s="52"/>
       <c r="AB28" s="52"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
         <v>393</v>
       </c>
@@ -4795,7 +4279,7 @@
       <c r="AA29" s="52"/>
       <c r="AB29" s="52"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
         <v>128</v>
       </c>
@@ -4827,7 +4311,7 @@
       <c r="AA30" s="52"/>
       <c r="AB30" s="52"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="49"/>
@@ -4857,7 +4341,7 @@
       <c r="AA31" s="52"/>
       <c r="AB31" s="52"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
         <v>29</v>
       </c>
@@ -4897,7 +4381,7 @@
       <c r="AA32" s="51"/>
       <c r="AB32" s="51"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
         <v>393</v>
       </c>
@@ -4908,7 +4392,7 @@
         <v>473</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>1013</v>
+        <v>834</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -4939,7 +4423,7 @@
       <c r="AA33" s="52"/>
       <c r="AB33" s="52"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>427</v>
       </c>
@@ -4979,7 +4463,7 @@
       <c r="AA34" s="52"/>
       <c r="AB34" s="52"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
         <v>393</v>
       </c>
@@ -4990,7 +4474,7 @@
         <v>485</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>1014</v>
+        <v>835</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
@@ -5019,7 +4503,7 @@
       <c r="AA35" s="52"/>
       <c r="AB35" s="52"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
         <v>393</v>
       </c>
@@ -5061,7 +4545,7 @@
       <c r="AA36" s="52"/>
       <c r="AB36" s="52"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>427</v>
       </c>
@@ -5101,7 +4585,7 @@
       <c r="AA37" s="52"/>
       <c r="AB37" s="52"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>393</v>
       </c>
@@ -5141,7 +4625,7 @@
       <c r="AA38" s="52"/>
       <c r="AB38" s="52"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>393</v>
       </c>
@@ -5179,7 +4663,7 @@
       <c r="AA39" s="52"/>
       <c r="AB39" s="52"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>516</v>
       </c>
@@ -5190,7 +4674,7 @@
         <v>518</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>1015</v>
+        <v>836</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
@@ -5217,7 +4701,7 @@
       <c r="AA40" s="52"/>
       <c r="AB40" s="52"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>128</v>
       </c>
@@ -5249,7 +4733,7 @@
       <c r="AA41" s="52"/>
       <c r="AB41" s="52"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
       <c r="B42" s="55"/>
       <c r="C42" s="50"/>
@@ -5279,7 +4763,7 @@
       <c r="AA42" s="56"/>
       <c r="AB42" s="56"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
         <v>29</v>
       </c>
@@ -5290,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>1016</v>
+        <v>837</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -5319,7 +4803,7 @@
       <c r="AA43" s="56"/>
       <c r="AB43" s="56"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
         <v>393</v>
       </c>
@@ -5357,7 +4841,7 @@
       <c r="AA44" s="56"/>
       <c r="AB44" s="56"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
         <v>393</v>
       </c>
@@ -5368,7 +4852,7 @@
         <v>570</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>1017</v>
+        <v>838</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
@@ -5395,7 +4879,7 @@
       <c r="AA45" s="56"/>
       <c r="AB45" s="56"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="47" t="s">
         <v>393</v>
       </c>
@@ -5406,7 +4890,7 @@
         <v>582</v>
       </c>
       <c r="D46" s="59" t="s">
-        <v>1018</v>
+        <v>839</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
@@ -5433,7 +4917,7 @@
       <c r="AA46" s="56"/>
       <c r="AB46" s="56"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
         <v>393</v>
       </c>
@@ -5471,7 +4955,7 @@
       <c r="AA47" s="56"/>
       <c r="AB47" s="56"/>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="47" t="s">
         <v>393</v>
       </c>
@@ -5509,7 +4993,7 @@
       <c r="AA48" s="56"/>
       <c r="AB48" s="56"/>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="47" t="s">
         <v>128</v>
       </c>
@@ -5541,7 +5025,7 @@
       <c r="AA49" s="56"/>
       <c r="AB49" s="56"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="48"/>
@@ -5571,7 +5055,7 @@
       <c r="AA50" s="56"/>
       <c r="AB50" s="56"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
         <v>29</v>
       </c>
@@ -5611,7 +5095,7 @@
       <c r="AA51" s="56"/>
       <c r="AB51" s="56"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
         <v>393</v>
       </c>
@@ -5622,7 +5106,7 @@
         <v>646</v>
       </c>
       <c r="D52" s="59" t="s">
-        <v>1019</v>
+        <v>840</v>
       </c>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
@@ -5649,7 +5133,7 @@
       <c r="AA52" s="56"/>
       <c r="AB52" s="56"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
         <v>393</v>
       </c>
@@ -5687,7 +5171,7 @@
       <c r="AA53" s="56"/>
       <c r="AB53" s="56"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
         <v>393</v>
       </c>
@@ -5725,7 +5209,7 @@
       <c r="AA54" s="56"/>
       <c r="AB54" s="56"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
         <v>393</v>
       </c>
@@ -5763,7 +5247,7 @@
       <c r="AA55" s="56"/>
       <c r="AB55" s="56"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47" t="s">
         <v>691</v>
       </c>
@@ -5807,7 +5291,7 @@
       <c r="AA56" s="56"/>
       <c r="AB56" s="56"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47" t="s">
         <v>393</v>
       </c>
@@ -5851,7 +5335,7 @@
       <c r="AA57" s="56"/>
       <c r="AB57" s="56"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
         <v>427</v>
       </c>
@@ -5891,7 +5375,7 @@
       <c r="AA58" s="56"/>
       <c r="AB58" s="56"/>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>691</v>
       </c>
@@ -5933,7 +5417,7 @@
       <c r="AA59" s="56"/>
       <c r="AB59" s="56"/>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>393</v>
       </c>
@@ -5973,7 +5457,7 @@
       <c r="AA60" s="56"/>
       <c r="AB60" s="56"/>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>393</v>
       </c>
@@ -6011,7 +5495,7 @@
       <c r="AA61" s="56"/>
       <c r="AB61" s="56"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="s">
         <v>128</v>
       </c>
@@ -6043,7 +5527,7 @@
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
@@ -6073,7 +5557,7 @@
       <c r="AA63" s="56"/>
       <c r="AB63" s="56"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
         <v>29</v>
       </c>
@@ -6113,7 +5597,7 @@
       <c r="AA64" s="56"/>
       <c r="AB64" s="56"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
         <v>393</v>
       </c>
@@ -6151,7 +5635,7 @@
       <c r="AA65" s="56"/>
       <c r="AB65" s="56"/>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
         <v>393</v>
       </c>
@@ -6162,7 +5646,7 @@
         <v>725</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>1020</v>
+        <v>841</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
@@ -6189,7 +5673,7 @@
       <c r="AA66" s="56"/>
       <c r="AB66" s="56"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="47" t="s">
         <v>393</v>
       </c>
@@ -6227,7 +5711,7 @@
       <c r="AA67" s="56"/>
       <c r="AB67" s="56"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="47" t="s">
         <v>393</v>
       </c>
@@ -6265,7 +5749,7 @@
       <c r="AA68" s="56"/>
       <c r="AB68" s="56"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="47" t="s">
         <v>393</v>
       </c>
@@ -6303,7 +5787,7 @@
       <c r="AA69" s="56"/>
       <c r="AB69" s="56"/>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="47" t="s">
         <v>691</v>
       </c>
@@ -6345,7 +5829,7 @@
       <c r="AA70" s="56"/>
       <c r="AB70" s="56"/>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="47" t="s">
         <v>393</v>
       </c>
@@ -6385,7 +5869,7 @@
       <c r="AA71" s="56"/>
       <c r="AB71" s="56"/>
     </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="47" t="s">
         <v>393</v>
       </c>
@@ -6423,7 +5907,7 @@
       <c r="AA72" s="56"/>
       <c r="AB72" s="56"/>
     </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="47" t="s">
         <v>128</v>
       </c>
@@ -6455,7 +5939,7 @@
       <c r="AA73" s="56"/>
       <c r="AB73" s="56"/>
     </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="48"/>
@@ -6485,7 +5969,7 @@
       <c r="AA74" s="56"/>
       <c r="AB74" s="56"/>
     </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="47" t="s">
         <v>29</v>
       </c>
@@ -6525,7 +6009,7 @@
       <c r="AA75" s="56"/>
       <c r="AB75" s="56"/>
     </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="47" t="s">
         <v>393</v>
       </c>
@@ -6536,7 +6020,7 @@
         <v>773</v>
       </c>
       <c r="D76" s="59" t="s">
-        <v>1021</v>
+        <v>842</v>
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
@@ -6563,7 +6047,7 @@
       <c r="AA76" s="56"/>
       <c r="AB76" s="56"/>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
         <v>393</v>
       </c>
@@ -6574,7 +6058,7 @@
         <v>774</v>
       </c>
       <c r="D77" s="59" t="s">
-        <v>1022</v>
+        <v>843</v>
       </c>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
@@ -6601,7 +6085,7 @@
       <c r="AA77" s="56"/>
       <c r="AB77" s="56"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="47" t="s">
         <v>393</v>
       </c>
@@ -6639,7 +6123,7 @@
       <c r="AA78" s="56"/>
       <c r="AB78" s="56"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
         <v>691</v>
       </c>
@@ -6679,7 +6163,7 @@
       <c r="AA79" s="56"/>
       <c r="AB79" s="56"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
         <v>393</v>
       </c>
@@ -6719,7 +6203,7 @@
       <c r="AA80" s="56"/>
       <c r="AB80" s="56"/>
     </row>
-    <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
         <v>393</v>
       </c>
@@ -6757,7 +6241,7 @@
       <c r="AA81" s="56"/>
       <c r="AB81" s="56"/>
     </row>
-    <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="47" t="s">
         <v>393</v>
       </c>
@@ -6795,7 +6279,7 @@
       <c r="AA82" s="56"/>
       <c r="AB82" s="56"/>
     </row>
-    <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="47" t="s">
         <v>393</v>
       </c>
@@ -6833,7 +6317,7 @@
       <c r="AA83" s="56"/>
       <c r="AB83" s="56"/>
     </row>
-    <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="47" t="s">
         <v>128</v>
       </c>
@@ -6865,7 +6349,7 @@
       <c r="AA84" s="56"/>
       <c r="AB84" s="56"/>
     </row>
-    <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="47"/>
       <c r="B85" s="47"/>
       <c r="C85" s="48"/>
@@ -6895,7 +6379,7 @@
       <c r="AA85" s="56"/>
       <c r="AB85" s="56"/>
     </row>
-    <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="47" t="s">
         <v>782</v>
       </c>
@@ -6906,7 +6390,7 @@
         <v>784</v>
       </c>
       <c r="D86" s="59" t="s">
-        <v>1023</v>
+        <v>844</v>
       </c>
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
@@ -6933,7 +6417,7 @@
       <c r="AA86" s="56"/>
       <c r="AB86" s="56"/>
     </row>
-    <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="47" t="s">
         <v>393</v>
       </c>
@@ -6944,7 +6428,7 @@
         <v>785</v>
       </c>
       <c r="D87" s="59" t="s">
-        <v>1024</v>
+        <v>845</v>
       </c>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
@@ -6971,7 +6455,7 @@
       <c r="AA87" s="56"/>
       <c r="AB87" s="56"/>
     </row>
-    <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="47" t="s">
         <v>393</v>
       </c>
@@ -7009,7 +6493,7 @@
       <c r="AA88" s="56"/>
       <c r="AB88" s="56"/>
     </row>
-    <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
         <v>393</v>
       </c>
@@ -7047,7 +6531,7 @@
       <c r="AA89" s="56"/>
       <c r="AB89" s="56"/>
     </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="47" t="s">
         <v>788</v>
       </c>
@@ -7085,7 +6569,7 @@
       <c r="AA90" s="56"/>
       <c r="AB90" s="56"/>
     </row>
-    <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="47" t="s">
         <v>791</v>
       </c>
@@ -7117,7 +6601,7 @@
       <c r="AA91" s="56"/>
       <c r="AB91" s="56"/>
     </row>
-    <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="47"/>
       <c r="B92" s="47"/>
       <c r="C92" s="48"/>
@@ -7147,7 +6631,7 @@
       <c r="AA92" s="56"/>
       <c r="AB92" s="56"/>
     </row>
-    <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="47" t="s">
         <v>782</v>
       </c>
@@ -7185,7 +6669,7 @@
       <c r="AA93" s="56"/>
       <c r="AB93" s="56"/>
     </row>
-    <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="47" t="s">
         <v>393</v>
       </c>
@@ -7196,7 +6680,7 @@
         <v>785</v>
       </c>
       <c r="D94" s="59" t="s">
-        <v>1024</v>
+        <v>845</v>
       </c>
       <c r="E94" s="49"/>
       <c r="F94" s="49"/>
@@ -7223,7 +6707,7 @@
       <c r="AA94" s="56"/>
       <c r="AB94" s="56"/>
     </row>
-    <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="47" t="s">
         <v>393</v>
       </c>
@@ -7261,7 +6745,7 @@
       <c r="AA95" s="56"/>
       <c r="AB95" s="56"/>
     </row>
-    <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="47" t="s">
         <v>393</v>
       </c>
@@ -7299,7 +6783,7 @@
       <c r="AA96" s="56"/>
       <c r="AB96" s="56"/>
     </row>
-    <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="47" t="s">
         <v>791</v>
       </c>
@@ -7343,23 +6827,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="16" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="16" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7370,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>338</v>
+        <v>846</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7385,7 +6869,7 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -7396,7 +6880,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -7411,7 +6895,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
@@ -7422,10 +6906,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>48</v>
       </c>
@@ -7436,7 +6920,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -7451,7 +6935,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>48</v>
       </c>
@@ -7462,7 +6946,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -7477,7 +6961,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>57</v>
       </c>
@@ -7487,11 +6971,11 @@
       <c r="C6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>57</v>
       </c>
@@ -7501,11 +6985,11 @@
       <c r="C7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
@@ -7515,11 +6999,11 @@
       <c r="C8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>57</v>
       </c>
@@ -7529,11 +7013,11 @@
       <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>57</v>
       </c>
@@ -7543,11 +7027,11 @@
       <c r="C10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>57</v>
       </c>
@@ -7557,11 +7041,11 @@
       <c r="C11" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>57</v>
       </c>
@@ -7571,11 +7055,11 @@
       <c r="C12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>57</v>
       </c>
@@ -7585,11 +7069,11 @@
       <c r="C13" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
@@ -7599,11 +7083,11 @@
       <c r="C14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>57</v>
       </c>
@@ -7613,11 +7097,11 @@
       <c r="C15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>57</v>
       </c>
@@ -7627,11 +7111,11 @@
       <c r="C16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>57</v>
       </c>
@@ -7641,11 +7125,11 @@
       <c r="C17" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
@@ -7655,11 +7139,11 @@
       <c r="C18" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>57</v>
       </c>
@@ -7669,11 +7153,11 @@
       <c r="C19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>57</v>
       </c>
@@ -7683,11 +7167,11 @@
       <c r="C20" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D20" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>57</v>
       </c>
@@ -7697,11 +7181,11 @@
       <c r="C21" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D21" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>57</v>
       </c>
@@ -7711,11 +7195,11 @@
       <c r="C22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>57</v>
       </c>
@@ -7725,11 +7209,11 @@
       <c r="C23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>57</v>
       </c>
@@ -7739,11 +7223,11 @@
       <c r="C24" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>57</v>
       </c>
@@ -7753,11 +7237,11 @@
       <c r="C25" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>57</v>
       </c>
@@ -7767,11 +7251,11 @@
       <c r="C26" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>57</v>
       </c>
@@ -7781,11 +7265,11 @@
       <c r="C27" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D27" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
@@ -7795,11 +7279,11 @@
       <c r="C28" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>57</v>
       </c>
@@ -7809,11 +7293,11 @@
       <c r="C29" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>57</v>
       </c>
@@ -7823,11 +7307,11 @@
       <c r="C30" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>57</v>
       </c>
@@ -7837,11 +7321,11 @@
       <c r="C31" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
@@ -7851,11 +7335,11 @@
       <c r="C32" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>57</v>
       </c>
@@ -7865,11 +7349,11 @@
       <c r="C33" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>57</v>
       </c>
@@ -7879,11 +7363,11 @@
       <c r="C34" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D34" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>57</v>
       </c>
@@ -7893,11 +7377,11 @@
       <c r="C35" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>57</v>
       </c>
@@ -7907,11 +7391,11 @@
       <c r="C36" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D36" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>57</v>
       </c>
@@ -7921,11 +7405,11 @@
       <c r="C37" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D37" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>57</v>
       </c>
@@ -7935,11 +7419,11 @@
       <c r="C38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D38" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>57</v>
       </c>
@@ -7949,11 +7433,11 @@
       <c r="C39" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>57</v>
       </c>
@@ -7963,11 +7447,11 @@
       <c r="C40" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D40" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>57</v>
       </c>
@@ -7977,11 +7461,11 @@
       <c r="C41" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>57</v>
       </c>
@@ -7991,11 +7475,11 @@
       <c r="C42" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>57</v>
       </c>
@@ -8005,11 +7489,11 @@
       <c r="C43" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D43" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>57</v>
       </c>
@@ -8019,11 +7503,11 @@
       <c r="C44" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D44" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>57</v>
       </c>
@@ -8033,11 +7517,11 @@
       <c r="C45" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>57</v>
       </c>
@@ -8047,11 +7531,11 @@
       <c r="C46" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D46" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>57</v>
       </c>
@@ -8061,11 +7545,11 @@
       <c r="C47" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D47" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>57</v>
       </c>
@@ -8075,11 +7559,11 @@
       <c r="C48" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D48" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>57</v>
       </c>
@@ -8089,11 +7573,11 @@
       <c r="C49" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D49" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>57</v>
       </c>
@@ -8103,11 +7587,11 @@
       <c r="C50" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D50" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>57</v>
       </c>
@@ -8117,11 +7601,11 @@
       <c r="C51" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D51" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>57</v>
       </c>
@@ -8131,11 +7615,11 @@
       <c r="C52" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>57</v>
       </c>
@@ -8145,11 +7629,11 @@
       <c r="C53" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D53" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>57</v>
       </c>
@@ -8159,11 +7643,11 @@
       <c r="C54" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D54" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>57</v>
       </c>
@@ -8173,11 +7657,11 @@
       <c r="C55" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D55" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>57</v>
       </c>
@@ -8187,11 +7671,11 @@
       <c r="C56" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>57</v>
       </c>
@@ -8201,11 +7685,11 @@
       <c r="C57" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
@@ -8215,11 +7699,11 @@
       <c r="C58" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D58" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>57</v>
       </c>
@@ -8229,11 +7713,11 @@
       <c r="C59" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>57</v>
       </c>
@@ -8243,11 +7727,11 @@
       <c r="C60" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>57</v>
       </c>
@@ -8257,11 +7741,11 @@
       <c r="C61" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D61" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>57</v>
       </c>
@@ -8271,11 +7755,11 @@
       <c r="C62" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>57</v>
       </c>
@@ -8285,11 +7769,11 @@
       <c r="C63" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D63" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>57</v>
       </c>
@@ -8299,11 +7783,11 @@
       <c r="C64" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D64" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>57</v>
       </c>
@@ -8313,11 +7797,11 @@
       <c r="C65" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D65" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>57</v>
       </c>
@@ -8327,11 +7811,11 @@
       <c r="C66" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D66" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>57</v>
       </c>
@@ -8341,11 +7825,11 @@
       <c r="C67" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>57</v>
       </c>
@@ -8355,11 +7839,11 @@
       <c r="C68" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D68" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>57</v>
       </c>
@@ -8369,11 +7853,11 @@
       <c r="C69" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D69" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>57</v>
       </c>
@@ -8383,11 +7867,11 @@
       <c r="C70" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D70" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>57</v>
       </c>
@@ -8397,11 +7881,11 @@
       <c r="C71" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D71" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>57</v>
       </c>
@@ -8411,11 +7895,11 @@
       <c r="C72" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D72" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>57</v>
       </c>
@@ -8425,11 +7909,11 @@
       <c r="C73" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D73" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>57</v>
       </c>
@@ -8439,11 +7923,11 @@
       <c r="C74" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D74" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>57</v>
       </c>
@@ -8453,11 +7937,11 @@
       <c r="C75" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D75" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>57</v>
       </c>
@@ -8467,11 +7951,11 @@
       <c r="C76" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D76" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>57</v>
       </c>
@@ -8481,11 +7965,11 @@
       <c r="C77" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D77" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>57</v>
       </c>
@@ -8495,11 +7979,11 @@
       <c r="C78" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D78" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>57</v>
       </c>
@@ -8509,11 +7993,11 @@
       <c r="C79" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D79" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>57</v>
       </c>
@@ -8523,11 +8007,11 @@
       <c r="C80" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D80" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>57</v>
       </c>
@@ -8537,11 +8021,11 @@
       <c r="C81" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>57</v>
       </c>
@@ -8551,11 +8035,11 @@
       <c r="C82" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D82" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>57</v>
       </c>
@@ -8565,11 +8049,11 @@
       <c r="C83" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D83" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>57</v>
       </c>
@@ -8579,11 +8063,11 @@
       <c r="C84" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D84" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
         <v>57</v>
       </c>
@@ -8593,11 +8077,11 @@
       <c r="C85" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>57</v>
       </c>
@@ -8607,11 +8091,11 @@
       <c r="C86" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D86" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D86" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>57</v>
       </c>
@@ -8621,11 +8105,11 @@
       <c r="C87" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D87" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>57</v>
       </c>
@@ -8635,11 +8119,11 @@
       <c r="C88" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D88" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>57</v>
       </c>
@@ -8649,11 +8133,11 @@
       <c r="C89" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>57</v>
       </c>
@@ -8663,11 +8147,11 @@
       <c r="C90" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>57</v>
       </c>
@@ -8677,11 +8161,11 @@
       <c r="C91" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D91" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>57</v>
       </c>
@@ -8691,11 +8175,11 @@
       <c r="C92" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D92" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>57</v>
       </c>
@@ -8705,11 +8189,11 @@
       <c r="C93" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D93" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>57</v>
       </c>
@@ -8719,11 +8203,11 @@
       <c r="C94" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="26" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>57</v>
       </c>
@@ -8733,11 +8217,11 @@
       <c r="C95" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>57</v>
       </c>
@@ -8747,11 +8231,11 @@
       <c r="C96" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>57</v>
       </c>
@@ -8761,11 +8245,11 @@
       <c r="C97" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D97" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D97" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>57</v>
       </c>
@@ -8775,11 +8259,11 @@
       <c r="C98" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D98" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>57</v>
       </c>
@@ -8789,11 +8273,11 @@
       <c r="C99" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D99" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>57</v>
       </c>
@@ -8803,11 +8287,11 @@
       <c r="C100" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D100" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D100" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>57</v>
       </c>
@@ -8817,11 +8301,11 @@
       <c r="C101" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D101" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>57</v>
       </c>
@@ -8831,11 +8315,11 @@
       <c r="C102" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D102" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>57</v>
       </c>
@@ -8845,11 +8329,11 @@
       <c r="C103" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D103" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>57</v>
       </c>
@@ -8859,11 +8343,11 @@
       <c r="C104" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>57</v>
       </c>
@@ -8873,11 +8357,11 @@
       <c r="C105" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="26" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>57</v>
       </c>
@@ -8887,11 +8371,11 @@
       <c r="C106" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D106" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>57</v>
       </c>
@@ -8901,11 +8385,11 @@
       <c r="C107" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D107" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>57</v>
       </c>
@@ -8915,11 +8399,11 @@
       <c r="C108" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D108" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D108" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>57</v>
       </c>
@@ -8929,11 +8413,11 @@
       <c r="C109" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D109" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D109" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>57</v>
       </c>
@@ -8943,11 +8427,11 @@
       <c r="C110" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D110" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D110" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
         <v>57</v>
       </c>
@@ -8957,11 +8441,11 @@
       <c r="C111" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D111" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>57</v>
       </c>
@@ -8971,11 +8455,11 @@
       <c r="C112" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D112" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>57</v>
       </c>
@@ -8985,11 +8469,11 @@
       <c r="C113" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D113" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D113" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>57</v>
       </c>
@@ -8999,11 +8483,11 @@
       <c r="C114" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D114" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D114" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>57</v>
       </c>
@@ -9013,11 +8497,11 @@
       <c r="C115" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="D115" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D115" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>57</v>
       </c>
@@ -9027,11 +8511,11 @@
       <c r="C116" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="D116" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D116" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>57</v>
       </c>
@@ -9041,11 +8525,11 @@
       <c r="C117" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D117" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D117" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>57</v>
       </c>
@@ -9055,11 +8539,11 @@
       <c r="C118" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>57</v>
       </c>
@@ -9069,11 +8553,11 @@
       <c r="C119" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="26" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>57</v>
       </c>
@@ -9083,11 +8567,11 @@
       <c r="C120" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>57</v>
       </c>
@@ -9097,11 +8581,11 @@
       <c r="C121" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>57</v>
       </c>
@@ -9111,11 +8595,11 @@
       <c r="C122" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="26" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>57</v>
       </c>
@@ -9125,11 +8609,11 @@
       <c r="C123" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="D123" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>57</v>
       </c>
@@ -9139,11 +8623,11 @@
       <c r="C124" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D124" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>57</v>
       </c>
@@ -9153,11 +8637,11 @@
       <c r="C125" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D125" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>57</v>
       </c>
@@ -9167,11 +8651,11 @@
       <c r="C126" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D126" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>57</v>
       </c>
@@ -9181,11 +8665,11 @@
       <c r="C127" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="D127" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>57</v>
       </c>
@@ -9195,11 +8679,11 @@
       <c r="C128" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="D128" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>57</v>
       </c>
@@ -9209,11 +8693,11 @@
       <c r="C129" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D129" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>57</v>
       </c>
@@ -9223,11 +8707,11 @@
       <c r="C130" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="26" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>57</v>
       </c>
@@ -9237,11 +8721,11 @@
       <c r="C131" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D131" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>57</v>
       </c>
@@ -9251,11 +8735,11 @@
       <c r="C132" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D132" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>57</v>
       </c>
@@ -9265,11 +8749,11 @@
       <c r="C133" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="26" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>57</v>
       </c>
@@ -9279,11 +8763,11 @@
       <c r="C134" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="D134" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>57</v>
       </c>
@@ -9293,11 +8777,11 @@
       <c r="C135" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="26" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>57</v>
       </c>
@@ -9307,11 +8791,11 @@
       <c r="C136" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="26" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
         <v>57</v>
       </c>
@@ -9321,11 +8805,11 @@
       <c r="C137" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="D137" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
         <v>57</v>
       </c>
@@ -9335,11 +8819,11 @@
       <c r="C138" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="26" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
         <v>57</v>
       </c>
@@ -9349,11 +8833,11 @@
       <c r="C139" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="26" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
         <v>57</v>
       </c>
@@ -9363,11 +8847,11 @@
       <c r="C140" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D140" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
         <v>57</v>
       </c>
@@ -9377,11 +8861,11 @@
       <c r="C141" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="26" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
         <v>57</v>
       </c>
@@ -9391,11 +8875,11 @@
       <c r="C142" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="26" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
         <v>57</v>
       </c>
@@ -9405,11 +8889,11 @@
       <c r="C143" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="D143" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
         <v>57</v>
       </c>
@@ -9419,11 +8903,11 @@
       <c r="C144" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="D144" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
         <v>57</v>
       </c>
@@ -9433,11 +8917,11 @@
       <c r="C145" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="26" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>57</v>
       </c>
@@ -9447,11 +8931,11 @@
       <c r="C146" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="D146" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>57</v>
       </c>
@@ -9461,11 +8945,11 @@
       <c r="C147" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D147" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>57</v>
       </c>
@@ -9475,11 +8959,11 @@
       <c r="C148" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="26" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
         <v>57</v>
       </c>
@@ -9489,11 +8973,11 @@
       <c r="C149" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="D149" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
         <v>57</v>
       </c>
@@ -9503,11 +8987,11 @@
       <c r="C150" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="D150" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
         <v>57</v>
       </c>
@@ -9517,11 +9001,11 @@
       <c r="C151" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D151" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
         <v>57</v>
       </c>
@@ -9531,11 +9015,11 @@
       <c r="C152" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="26" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
         <v>57</v>
       </c>
@@ -9545,11 +9029,11 @@
       <c r="C153" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="D153" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D153" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
         <v>57</v>
       </c>
@@ -9559,11 +9043,11 @@
       <c r="C154" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="D154" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D154" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
         <v>57</v>
       </c>
@@ -9573,11 +9057,11 @@
       <c r="C155" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
         <v>57</v>
       </c>
@@ -9587,11 +9071,11 @@
       <c r="C156" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D156" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
         <v>57</v>
       </c>
@@ -9601,11 +9085,11 @@
       <c r="C157" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="26" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
         <v>57</v>
       </c>
@@ -9615,11 +9099,11 @@
       <c r="C158" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
         <v>57</v>
       </c>
@@ -9629,11 +9113,11 @@
       <c r="C159" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D159" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D159" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
         <v>57</v>
       </c>
@@ -9643,11 +9127,11 @@
       <c r="C160" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
         <v>57</v>
       </c>
@@ -9657,11 +9141,11 @@
       <c r="C161" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="D161" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D161" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
         <v>57</v>
       </c>
@@ -9671,11 +9155,11 @@
       <c r="C162" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="D162" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D162" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
         <v>57</v>
       </c>
@@ -9685,11 +9169,11 @@
       <c r="C163" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="D163" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D163" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
         <v>57</v>
       </c>
@@ -9699,11 +9183,11 @@
       <c r="C164" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="D164" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D164" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
         <v>57</v>
       </c>
@@ -9713,11 +9197,11 @@
       <c r="C165" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="26" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
         <v>57</v>
       </c>
@@ -9727,11 +9211,11 @@
       <c r="C166" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="26" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
         <v>57</v>
       </c>
@@ -9741,11 +9225,11 @@
       <c r="C167" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="26" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
         <v>57</v>
       </c>
@@ -9755,11 +9239,11 @@
       <c r="C168" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="26" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
         <v>57</v>
       </c>
@@ -9769,11 +9253,11 @@
       <c r="C169" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="D169" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D169" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
         <v>57</v>
       </c>
@@ -9783,11 +9267,11 @@
       <c r="C170" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D170" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D170" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
         <v>57</v>
       </c>
@@ -9797,11 +9281,11 @@
       <c r="C171" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="D171" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D171" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
         <v>57</v>
       </c>
@@ -9811,11 +9295,11 @@
       <c r="C172" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="26" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
         <v>57</v>
       </c>
@@ -9825,11 +9309,11 @@
       <c r="C173" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="26" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
         <v>57</v>
       </c>
@@ -9839,11 +9323,11 @@
       <c r="C174" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="26" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
         <v>57</v>
       </c>
@@ -9853,11 +9337,11 @@
       <c r="C175" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="D175" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D175" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
         <v>57</v>
       </c>
@@ -9867,11 +9351,11 @@
       <c r="C176" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="26" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
         <v>57</v>
       </c>
@@ -9881,11 +9365,11 @@
       <c r="C177" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D177" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D177" s="26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
         <v>57</v>
       </c>
@@ -9895,11 +9379,11 @@
       <c r="C178" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="26" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
         <v>57</v>
       </c>
@@ -9909,11 +9393,11 @@
       <c r="C179" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="D179" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D179" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
         <v>57</v>
       </c>
@@ -9923,11 +9407,11 @@
       <c r="C180" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="26" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
         <v>57</v>
       </c>
@@ -9937,11 +9421,11 @@
       <c r="C181" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="26" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
         <v>57</v>
       </c>
@@ -9951,11 +9435,11 @@
       <c r="C182" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="D182" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D182" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
         <v>57</v>
       </c>
@@ -9965,11 +9449,11 @@
       <c r="C183" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D183" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D183" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
         <v>57</v>
       </c>
@@ -9979,11 +9463,11 @@
       <c r="C184" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="D184" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D184" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
         <v>57</v>
       </c>
@@ -9993,11 +9477,11 @@
       <c r="C185" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="26" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
         <v>57</v>
       </c>
@@ -10007,11 +9491,11 @@
       <c r="C186" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="26" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
         <v>57</v>
       </c>
@@ -10021,11 +9505,11 @@
       <c r="C187" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="D187" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D187" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
         <v>57</v>
       </c>
@@ -10035,11 +9519,11 @@
       <c r="C188" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="D188" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D188" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
         <v>57</v>
       </c>
@@ -10049,11 +9533,11 @@
       <c r="C189" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="26" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
         <v>57</v>
       </c>
@@ -10063,11 +9547,11 @@
       <c r="C190" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="26" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
         <v>57</v>
       </c>
@@ -10077,11 +9561,11 @@
       <c r="C191" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="D191" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D191" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
         <v>57</v>
       </c>
@@ -10091,11 +9575,11 @@
       <c r="C192" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="D192" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D192" s="26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
         <v>57</v>
       </c>
@@ -10105,11 +9589,11 @@
       <c r="C193" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="D193" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D193" s="26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
         <v>57</v>
       </c>
@@ -10119,11 +9603,11 @@
       <c r="C194" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="D194" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D194" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
         <v>57</v>
       </c>
@@ -10133,11 +9617,11 @@
       <c r="C195" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="D195" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D195" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
         <v>57</v>
       </c>
@@ -10147,11 +9631,11 @@
       <c r="C196" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="D196" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D196" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
         <v>57</v>
       </c>
@@ -10161,11 +9645,11 @@
       <c r="C197" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="26" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="s">
         <v>57</v>
       </c>
@@ -10175,11 +9659,11 @@
       <c r="C198" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="D198" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D198" s="26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
         <v>57</v>
       </c>
@@ -10189,11 +9673,11 @@
       <c r="C199" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="D199" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D199" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
         <v>57</v>
       </c>
@@ -10203,11 +9687,11 @@
       <c r="C200" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="D200" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D200" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
         <v>57</v>
       </c>
@@ -10217,11 +9701,11 @@
       <c r="C201" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="D201" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D201" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
         <v>57</v>
       </c>
@@ -10231,11 +9715,11 @@
       <c r="C202" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="D202" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D202" s="26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
         <v>57</v>
       </c>
@@ -10245,11 +9729,11 @@
       <c r="C203" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="D203" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D203" s="26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
         <v>57</v>
       </c>
@@ -10259,11 +9743,11 @@
       <c r="C204" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="26" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
         <v>57</v>
       </c>
@@ -10273,11 +9757,11 @@
       <c r="C205" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="D205" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D205" s="26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
         <v>57</v>
       </c>
@@ -10287,11 +9771,11 @@
       <c r="C206" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="D206" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D206" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
         <v>57</v>
       </c>
@@ -10301,11 +9785,11 @@
       <c r="C207" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="D207" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D207" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
         <v>57</v>
       </c>
@@ -10315,11 +9799,11 @@
       <c r="C208" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="D208" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D208" s="26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
         <v>57</v>
       </c>
@@ -10329,11 +9813,11 @@
       <c r="C209" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="D209" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D209" s="26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
         <v>57</v>
       </c>
@@ -10343,11 +9827,11 @@
       <c r="C210" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="D210" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D210" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
         <v>57</v>
       </c>
@@ -10357,11 +9841,11 @@
       <c r="C211" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="D211" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D211" s="26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
         <v>57</v>
       </c>
@@ -10371,11 +9855,11 @@
       <c r="C212" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="D212" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D212" s="26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
         <v>57</v>
       </c>
@@ -10385,11 +9869,11 @@
       <c r="C213" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="D213" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D213" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
         <v>57</v>
       </c>
@@ -10399,11 +9883,11 @@
       <c r="C214" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="D214" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D214" s="26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
         <v>57</v>
       </c>
@@ -10413,11 +9897,11 @@
       <c r="C215" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="26" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
         <v>57</v>
       </c>
@@ -10427,11 +9911,11 @@
       <c r="C216" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="D216" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D216" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
         <v>57</v>
       </c>
@@ -10441,11 +9925,11 @@
       <c r="C217" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="26" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="s">
         <v>57</v>
       </c>
@@ -10455,11 +9939,11 @@
       <c r="C218" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="D218" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D218" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="s">
         <v>57</v>
       </c>
@@ -10469,11 +9953,11 @@
       <c r="C219" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="26" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="s">
         <v>57</v>
       </c>
@@ -10483,11 +9967,11 @@
       <c r="C220" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="D220" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D220" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
         <v>57</v>
       </c>
@@ -10497,11 +9981,11 @@
       <c r="C221" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="D221" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D221" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
         <v>57</v>
       </c>
@@ -10511,11 +9995,11 @@
       <c r="C222" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="D222" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D222" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="s">
         <v>57</v>
       </c>
@@ -10525,11 +10009,11 @@
       <c r="C223" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="D223" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D223" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
         <v>57</v>
       </c>
@@ -10539,11 +10023,11 @@
       <c r="C224" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="D224" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D224" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
         <v>57</v>
       </c>
@@ -10553,11 +10037,11 @@
       <c r="C225" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="D225" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D225" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
         <v>57</v>
       </c>
@@ -10567,11 +10051,11 @@
       <c r="C226" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="D226" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D226" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
         <v>57</v>
       </c>
@@ -10581,11 +10065,11 @@
       <c r="C227" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="26" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
         <v>57</v>
       </c>
@@ -10595,11 +10079,11 @@
       <c r="C228" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="D228" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D228" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
         <v>57</v>
       </c>
@@ -10609,11 +10093,11 @@
       <c r="C229" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="26" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
         <v>57</v>
       </c>
@@ -10623,11 +10107,11 @@
       <c r="C230" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="26" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
         <v>57</v>
       </c>
@@ -10637,11 +10121,11 @@
       <c r="C231" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="D231" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D231" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
         <v>57</v>
       </c>
@@ -10651,11 +10135,11 @@
       <c r="C232" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="D232" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D232" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
         <v>57</v>
       </c>
@@ -10665,11 +10149,11 @@
       <c r="C233" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="D233" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D233" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
         <v>57</v>
       </c>
@@ -10679,11 +10163,11 @@
       <c r="C234" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="D234" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D234" s="26" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
         <v>57</v>
       </c>
@@ -10693,11 +10177,11 @@
       <c r="C235" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="D235" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D235" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
         <v>57</v>
       </c>
@@ -10707,11 +10191,11 @@
       <c r="C236" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="26" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
         <v>57</v>
       </c>
@@ -10721,11 +10205,11 @@
       <c r="C237" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="D237" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D237" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
         <v>57</v>
       </c>
@@ -10735,11 +10219,11 @@
       <c r="C238" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="26" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
         <v>57</v>
       </c>
@@ -10749,11 +10233,11 @@
       <c r="C239" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="D239" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D239" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
         <v>57</v>
       </c>
@@ -10763,11 +10247,11 @@
       <c r="C240" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="D240" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D240" s="26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
         <v>57</v>
       </c>
@@ -10777,11 +10261,11 @@
       <c r="C241" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D241" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D241" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="s">
         <v>57</v>
       </c>
@@ -10791,11 +10275,11 @@
       <c r="C242" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="D242" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D242" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
         <v>57</v>
       </c>
@@ -10805,11 +10289,11 @@
       <c r="C243" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="26" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
         <v>57</v>
       </c>
@@ -10819,11 +10303,11 @@
       <c r="C244" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="D244" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D244" s="26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
         <v>57</v>
       </c>
@@ -10833,11 +10317,11 @@
       <c r="C245" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="26" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
         <v>57</v>
       </c>
@@ -10847,11 +10331,11 @@
       <c r="C246" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="D246" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D246" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
         <v>57</v>
       </c>
@@ -10861,11 +10345,11 @@
       <c r="C247" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="26" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
         <v>57</v>
       </c>
@@ -10875,11 +10359,11 @@
       <c r="C248" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="D248" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D248" s="26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
         <v>57</v>
       </c>
@@ -10889,11 +10373,11 @@
       <c r="C249" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="D249" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D249" s="26" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
         <v>57</v>
       </c>
@@ -10903,11 +10387,11 @@
       <c r="C250" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="D250" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D250" s="26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
         <v>57</v>
       </c>
@@ -10917,11 +10401,11 @@
       <c r="C251" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="D251" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D251" s="26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
         <v>57</v>
       </c>
@@ -10931,11 +10415,11 @@
       <c r="C252" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="D252" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D252" s="26" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
         <v>57</v>
       </c>
@@ -10945,11 +10429,11 @@
       <c r="C253" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="D253" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D253" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
         <v>57</v>
       </c>
@@ -10959,11 +10443,11 @@
       <c r="C254" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="26" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
         <v>57</v>
       </c>
@@ -10973,8 +10457,8 @@
       <c r="C255" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="D255" t="s">
-        <v>1011</v>
+      <c r="D255" s="26" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -10984,7 +10468,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z2"/>
@@ -10994,15 +10478,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11044,7 +10528,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -11053,7 +10537,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>43918.5096150463</v>
+        <v>44010.832508333333</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -11090,7 +10574,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W1000"/>
@@ -11100,13 +10584,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="23" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="23" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11149,7 +10633,7 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -11180,7 +10664,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>30</v>
       </c>
@@ -11211,7 +10695,7 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -11236,7 +10720,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>383</v>
       </c>
@@ -11267,7 +10751,7 @@
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>383</v>
       </c>
@@ -11298,7 +10782,7 @@
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>383</v>
       </c>
@@ -11329,7 +10813,7 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>383</v>
       </c>
@@ -11360,7 +10844,7 @@
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>383</v>
       </c>
@@ -11391,7 +10875,7 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -11416,7 +10900,7 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>434</v>
       </c>
@@ -11447,7 +10931,7 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>434</v>
       </c>
@@ -11478,7 +10962,7 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>434</v>
       </c>
@@ -11509,7 +10993,7 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>434</v>
       </c>
@@ -11540,7 +11024,7 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>434</v>
       </c>
@@ -11571,7 +11055,7 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>434</v>
       </c>
@@ -11602,7 +11086,7 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -11627,7 +11111,7 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>519</v>
       </c>
@@ -11658,7 +11142,7 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>519</v>
       </c>
@@ -11689,7 +11173,7 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>519</v>
       </c>
@@ -11720,7 +11204,7 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>519</v>
       </c>
@@ -11751,7 +11235,7 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>519</v>
       </c>
@@ -11782,7 +11266,7 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>519</v>
       </c>
@@ -11813,7 +11297,7 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -11838,7 +11322,7 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>562</v>
       </c>
@@ -11869,7 +11353,7 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>562</v>
       </c>
@@ -11900,7 +11384,7 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>562</v>
       </c>
@@ -11931,7 +11415,7 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>562</v>
       </c>
@@ -11962,7 +11446,7 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>562</v>
       </c>
@@ -11993,7 +11477,7 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -12018,7 +11502,7 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>600</v>
       </c>
@@ -12049,7 +11533,7 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>600</v>
       </c>
@@ -12080,7 +11564,7 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -12105,7 +11589,7 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>619</v>
       </c>
@@ -12117,7 +11601,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>619</v>
       </c>
@@ -12129,7 +11613,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>619</v>
       </c>
@@ -12141,7 +11625,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>619</v>
       </c>
@@ -12153,7 +11637,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>619</v>
       </c>
@@ -12165,7 +11649,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>619</v>
       </c>
@@ -12177,7 +11661,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>619</v>
       </c>
@@ -12189,7 +11673,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>619</v>
       </c>
@@ -12201,7 +11685,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>619</v>
       </c>
@@ -12213,7 +11697,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>619</v>
       </c>
@@ -12224,13 +11708,13 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>704</v>
       </c>
@@ -12242,7 +11726,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>704</v>
       </c>
@@ -12254,13 +11738,13 @@
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="60" t="s">
         <v>717</v>
       </c>
@@ -12291,7 +11775,7 @@
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60" t="s">
         <v>717</v>
       </c>
@@ -12322,8 +11806,8 @@
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>731</v>
       </c>
@@ -12334,7 +11818,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>731</v>
       </c>
@@ -12345,7 +11829,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>731</v>
       </c>
@@ -12356,7 +11840,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>731</v>
       </c>
@@ -12367,7 +11851,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>731</v>
       </c>
@@ -12378,7 +11862,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>731</v>
       </c>
@@ -12389,8 +11873,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="60" t="s">
         <v>745</v>
       </c>
@@ -12401,7 +11885,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="60" t="s">
         <v>745</v>
       </c>
@@ -12412,7 +11896,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="60" t="s">
         <v>745</v>
       </c>
@@ -12423,7 +11907,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="60" t="s">
         <v>745</v>
       </c>
@@ -12434,8 +11918,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>752</v>
       </c>
@@ -12446,7 +11930,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>752</v>
       </c>
@@ -12457,7 +11941,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>752</v>
       </c>
@@ -12468,7 +11952,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>752</v>
       </c>
@@ -12479,7 +11963,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>752</v>
       </c>
@@ -12490,8 +11974,8 @@
         <v>763</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>764</v>
       </c>
@@ -12502,7 +11986,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>764</v>
       </c>
@@ -12513,8 +11997,8 @@
         <v>768</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>769</v>
       </c>
@@ -12525,7 +12009,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>769</v>
       </c>
@@ -12536,7 +12020,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>769</v>
       </c>
@@ -12547,932 +12031,932 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ebs_with_tracing/forms/app/locator.xlsx
+++ b/ebs_with_tracing/forms/app/locator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="796">
   <si>
     <t>list_name</t>
   </si>
@@ -2418,174 +2418,6 @@
   </si>
   <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>Information de vol</t>
-  </si>
-  <si>
-    <t>2. Numéro de vol</t>
-  </si>
-  <si>
-    <t>3. Numéro du siège</t>
-  </si>
-  <si>
-    <t>4. Date d'arrivée</t>
-  </si>
-  <si>
-    <t>Voulez-vous changer?</t>
-  </si>
-  <si>
-    <t>Mise à jour Date d'arrivée:</t>
-  </si>
-  <si>
-    <t>Renseignements personnels</t>
-  </si>
-  <si>
-    <t>Mise à jour Prénom:</t>
-  </si>
-  <si>
-    <t>7. Initiale</t>
-  </si>
-  <si>
-    <t>12. Autres</t>
-  </si>
-  <si>
-    <t>13. Adresse e-mail</t>
-  </si>
-  <si>
-    <t>Adresse permanente</t>
-  </si>
-  <si>
-    <t>15. Numéro d'appartement</t>
-  </si>
-  <si>
-    <t>16. Ville</t>
-  </si>
-  <si>
-    <t>17. État / Province</t>
-  </si>
-  <si>
-    <t>18. Pays</t>
-  </si>
-  <si>
-    <t>Autre:</t>
-  </si>
-  <si>
-    <t>Mise à jour Pays:</t>
-  </si>
-  <si>
-    <t>S'il vous plaît préciser le pays:</t>
-  </si>
-  <si>
-    <t>19. ZIP / Code postal</t>
-  </si>
-  <si>
-    <t>Adresse temporaire</t>
-  </si>
-  <si>
-    <t>20. Nom Hôtel</t>
-  </si>
-  <si>
-    <t>22. Numéro d'appartement</t>
-  </si>
-  <si>
-    <t>23. Ville</t>
-  </si>
-  <si>
-    <t>24. État / Province</t>
-  </si>
-  <si>
-    <t>25. Pays</t>
-  </si>
-  <si>
-    <t>26. ZIP / Code postal</t>
-  </si>
-  <si>
-    <t>Informations de contact d'urgence</t>
-  </si>
-  <si>
-    <t>29. Ville</t>
-  </si>
-  <si>
-    <t>30. Pays</t>
-  </si>
-  <si>
-    <t>32. Téléphone portable</t>
-  </si>
-  <si>
-    <t>33. Autre téléphone</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Numéro de siège</t>
-  </si>
-  <si>
-    <t>Âge &lt;18</t>
-  </si>
-  <si>
-    <t>35. Compagnons de voyage - Non-famille</t>
-  </si>
-  <si>
-    <t>Groupe</t>
-  </si>
-  <si>
-    <t>1. Nom de la compagnie aérienne</t>
-  </si>
-  <si>
-    <t>Nom de Famille</t>
-  </si>
-  <si>
-    <t>Nom mis à jour</t>
-  </si>
-  <si>
-    <t>8. Genre</t>
-  </si>
-  <si>
-    <t>Vos numéros de téléphone</t>
-  </si>
-  <si>
-    <t>10. Professionnel</t>
-  </si>
-  <si>
-    <t>11. Domicile</t>
-  </si>
-  <si>
-    <t>14. Numéro et Rue</t>
-  </si>
-  <si>
-    <t>22. Numéro et Rue</t>
-  </si>
-  <si>
-    <t>27. Nom</t>
-  </si>
-  <si>
-    <t>28. Prénom</t>
-  </si>
-  <si>
-    <t>34; Compagnons de voyage - Famille</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>label::sh</t>
-  </si>
-  <si>
-    <t>Kwete</t>
-  </si>
-  <si>
-    <t>Hongu</t>
-  </si>
-  <si>
-    <t>Murume</t>
-  </si>
-  <si>
-    <t>Mukadzi</t>
-  </si>
-  <si>
-    <t>Imwe nyika</t>
   </si>
 </sst>
 </file>
@@ -3151,33 +2983,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="28" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="27" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3187,57 +3019,55 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="Q1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
@@ -3245,9 +3075,8 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -3257,15 +3086,15 @@
       <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="G2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -3276,7 +3105,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -3285,9 +3114,8 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -3297,7 +3125,7 @@
       <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -3307,14 +3135,14 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
@@ -3323,9 +3151,8 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -3335,7 +3162,7 @@
       <c r="C4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -3350,7 +3177,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
@@ -3359,9 +3186,8 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -3371,7 +3197,7 @@
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -3386,7 +3212,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
@@ -3395,9 +3221,8 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
@@ -3407,13 +3232,13 @@
       <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -3424,7 +3249,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -3433,9 +3258,8 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -3445,7 +3269,7 @@
       <c r="C7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -3460,7 +3284,7 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
@@ -3469,9 +3293,8 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -3481,7 +3304,7 @@
       <c r="C8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -3496,7 +3319,7 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
@@ -3505,9 +3328,8 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>39</v>
       </c>
@@ -3541,9 +3363,8 @@
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
       <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -3577,9 +3398,8 @@
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
       <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -3613,9 +3433,8 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -3649,9 +3468,8 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>39</v>
       </c>
@@ -3685,9 +3503,8 @@
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
@@ -3721,9 +3538,8 @@
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>128</v>
       </c>
@@ -3753,9 +3569,8 @@
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
       <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>128</v>
       </c>
@@ -3763,7 +3578,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -3778,7 +3593,7 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
@@ -3787,9 +3602,8 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>128</v>
       </c>
@@ -3797,7 +3611,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -3810,11 +3624,11 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="32" t="s">
+      <c r="Q17" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
@@ -3823,13 +3637,12 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -3842,9 +3655,9 @@
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="33"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
@@ -3853,9 +3666,8 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>192</v>
       </c>
@@ -3865,26 +3677,26 @@
       <c r="C19" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39" t="s">
+      <c r="K19" s="39" t="s">
         <v>288</v>
       </c>
+      <c r="L19" s="39"/>
       <c r="M19" s="39"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="41" t="s">
+      <c r="Q19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="43"/>
       <c r="T19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
@@ -3893,9 +3705,8 @@
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>192</v>
       </c>
@@ -3905,26 +3716,26 @@
       <c r="C20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="41" t="s">
+      <c r="K20" s="41" t="s">
         <v>331</v>
       </c>
+      <c r="L20" s="39"/>
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="41" t="s">
+      <c r="Q20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="43"/>
       <c r="T20" s="43"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
@@ -3933,9 +3744,8 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>192</v>
       </c>
@@ -3945,26 +3755,26 @@
       <c r="C21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="41" t="s">
+      <c r="K21" s="41" t="s">
         <v>346</v>
       </c>
+      <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="41" t="s">
+      <c r="Q21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="43"/>
       <c r="T21" s="43"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
@@ -3973,16 +3783,15 @@
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -3994,7 +3803,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="46"/>
       <c r="U22" s="46"/>
       <c r="V22" s="46"/>
@@ -4003,9 +3812,8 @@
       <c r="Y22" s="46"/>
       <c r="Z22" s="46"/>
       <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>29</v>
       </c>
@@ -4015,16 +3823,14 @@
       <c r="C23" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="D23" s="59" t="s">
-        <v>796</v>
-      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="48" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -4034,7 +3840,7 @@
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="51"/>
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
@@ -4043,9 +3849,8 @@
       <c r="Y23" s="51"/>
       <c r="Z23" s="51"/>
       <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
         <v>393</v>
       </c>
@@ -4055,9 +3860,7 @@
       <c r="C24" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>833</v>
-      </c>
+      <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -4070,9 +3873,9 @@
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="49"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="51"/>
       <c r="T24" s="51"/>
       <c r="U24" s="51"/>
       <c r="V24" s="51"/>
@@ -4081,9 +3884,8 @@
       <c r="Y24" s="51"/>
       <c r="Z24" s="51"/>
       <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>393</v>
       </c>
@@ -4093,9 +3895,7 @@
       <c r="C25" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="D25" s="59" t="s">
-        <v>797</v>
-      </c>
+      <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -4110,7 +3910,7 @@
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
+      <c r="S25" s="51"/>
       <c r="T25" s="51"/>
       <c r="U25" s="51"/>
       <c r="V25" s="51"/>
@@ -4119,9 +3919,8 @@
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
         <v>393</v>
       </c>
@@ -4131,24 +3930,22 @@
       <c r="C26" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="D26" s="59" t="s">
-        <v>798</v>
-      </c>
+      <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="49"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="52"/>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
       <c r="V26" s="52"/>
@@ -4157,9 +3954,8 @@
       <c r="Y26" s="52"/>
       <c r="Z26" s="52"/>
       <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
         <v>416</v>
       </c>
@@ -4169,26 +3965,24 @@
       <c r="C27" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="D27" s="59" t="s">
-        <v>799</v>
-      </c>
+      <c r="D27" s="49"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="53" t="s">
+      <c r="K27" s="53" t="s">
         <v>422</v>
       </c>
+      <c r="L27" s="49"/>
       <c r="M27" s="49"/>
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
       <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
+      <c r="S27" s="52"/>
       <c r="T27" s="52"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52"/>
@@ -4197,9 +3991,8 @@
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
       <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
         <v>427</v>
       </c>
@@ -4209,26 +4002,24 @@
       <c r="C28" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="59" t="s">
-        <v>800</v>
-      </c>
+      <c r="D28" s="49"/>
       <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48" t="s">
+      <c r="F28" s="48" t="s">
         <v>441</v>
       </c>
+      <c r="G28" s="49"/>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
       <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
+      <c r="S28" s="52"/>
       <c r="T28" s="52"/>
       <c r="U28" s="52"/>
       <c r="V28" s="52"/>
@@ -4237,9 +4028,8 @@
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
       <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
         <v>393</v>
       </c>
@@ -4249,26 +4039,24 @@
       <c r="C29" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="59" t="s">
-        <v>801</v>
-      </c>
+      <c r="D29" s="49"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="48" t="s">
+      <c r="F29" s="48" t="s">
         <v>448</v>
       </c>
+      <c r="G29" s="49"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="49"/>
       <c r="M29" s="49"/>
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
       <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
+      <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="52"/>
       <c r="V29" s="52"/>
@@ -4277,30 +4065,29 @@
       <c r="Y29" s="52"/>
       <c r="Z29" s="52"/>
       <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B30" s="54"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="49"/>
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
+      <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="52"/>
       <c r="V30" s="52"/>
@@ -4309,28 +4096,27 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="52"/>
       <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
       <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
+      <c r="S31" s="52"/>
       <c r="T31" s="52"/>
       <c r="U31" s="52"/>
       <c r="V31" s="52"/>
@@ -4339,9 +4125,8 @@
       <c r="Y31" s="52"/>
       <c r="Z31" s="52"/>
       <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
         <v>29</v>
       </c>
@@ -4351,16 +4136,14 @@
       <c r="C32" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="D32" s="59" t="s">
-        <v>802</v>
-      </c>
+      <c r="D32" s="49"/>
       <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="48" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -4370,7 +4153,7 @@
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
       <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
+      <c r="S32" s="51"/>
       <c r="T32" s="51"/>
       <c r="U32" s="51"/>
       <c r="V32" s="51"/>
@@ -4379,9 +4162,8 @@
       <c r="Y32" s="51"/>
       <c r="Z32" s="51"/>
       <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
         <v>393</v>
       </c>
@@ -4391,28 +4173,26 @@
       <c r="C33" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="D33" s="59" t="s">
-        <v>834</v>
-      </c>
+      <c r="D33" s="49"/>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="48" t="s">
+      <c r="H33" s="48" t="s">
         <v>359</v>
       </c>
+      <c r="I33" s="49"/>
       <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="53" t="s">
+      <c r="K33" s="53" t="s">
         <v>476</v>
       </c>
+      <c r="L33" s="49"/>
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
       <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
+      <c r="S33" s="52"/>
       <c r="T33" s="52"/>
       <c r="U33" s="52"/>
       <c r="V33" s="52"/>
@@ -4421,9 +4201,8 @@
       <c r="Y33" s="52"/>
       <c r="Z33" s="52"/>
       <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>427</v>
       </c>
@@ -4433,26 +4212,24 @@
       <c r="C34" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D34" s="59" t="s">
-        <v>800</v>
-      </c>
+      <c r="D34" s="49"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="48" t="s">
+      <c r="F34" s="48" t="s">
         <v>481</v>
       </c>
+      <c r="G34" s="49"/>
       <c r="H34" s="49"/>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="49"/>
       <c r="M34" s="49"/>
       <c r="N34" s="49"/>
       <c r="O34" s="49"/>
       <c r="P34" s="49"/>
       <c r="Q34" s="49"/>
       <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
+      <c r="S34" s="52"/>
       <c r="T34" s="52"/>
       <c r="U34" s="52"/>
       <c r="V34" s="52"/>
@@ -4461,9 +4238,8 @@
       <c r="Y34" s="52"/>
       <c r="Z34" s="52"/>
       <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
         <v>393</v>
       </c>
@@ -4473,26 +4249,24 @@
       <c r="C35" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="D35" s="59" t="s">
-        <v>835</v>
-      </c>
+      <c r="D35" s="49"/>
       <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="48" t="s">
+      <c r="F35" s="48" t="s">
         <v>487</v>
       </c>
+      <c r="G35" s="49"/>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="49"/>
       <c r="M35" s="49"/>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
       <c r="Q35" s="49"/>
       <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
+      <c r="S35" s="52"/>
       <c r="T35" s="52"/>
       <c r="U35" s="52"/>
       <c r="V35" s="52"/>
@@ -4501,9 +4275,8 @@
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
       <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
         <v>393</v>
       </c>
@@ -4513,28 +4286,26 @@
       <c r="C36" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="D36" s="59" t="s">
-        <v>828</v>
-      </c>
+      <c r="D36" s="49"/>
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="48" t="s">
+      <c r="H36" s="48" t="s">
         <v>359</v>
       </c>
+      <c r="I36" s="49"/>
       <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="53" t="s">
+      <c r="K36" s="53" t="s">
         <v>494</v>
       </c>
+      <c r="L36" s="49"/>
       <c r="M36" s="49"/>
       <c r="N36" s="49"/>
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
       <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
+      <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="52"/>
       <c r="V36" s="52"/>
@@ -4543,9 +4314,8 @@
       <c r="Y36" s="52"/>
       <c r="Z36" s="52"/>
       <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>427</v>
       </c>
@@ -4555,26 +4325,24 @@
       <c r="C37" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D37" s="59" t="s">
-        <v>800</v>
-      </c>
+      <c r="D37" s="49"/>
       <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="53" t="s">
+      <c r="F37" s="53" t="s">
         <v>500</v>
       </c>
+      <c r="G37" s="49"/>
       <c r="H37" s="49"/>
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="49"/>
       <c r="M37" s="49"/>
       <c r="N37" s="49"/>
       <c r="O37" s="49"/>
       <c r="P37" s="49"/>
       <c r="Q37" s="49"/>
       <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
+      <c r="S37" s="52"/>
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
@@ -4583,9 +4351,8 @@
       <c r="Y37" s="52"/>
       <c r="Z37" s="52"/>
       <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>393</v>
       </c>
@@ -4595,26 +4362,24 @@
       <c r="C38" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="D38" s="59" t="s">
-        <v>803</v>
-      </c>
+      <c r="D38" s="49"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="48" t="s">
+      <c r="F38" s="48" t="s">
         <v>507</v>
       </c>
+      <c r="G38" s="49"/>
       <c r="H38" s="49"/>
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="49"/>
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
       <c r="O38" s="49"/>
       <c r="P38" s="49"/>
       <c r="Q38" s="49"/>
       <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
+      <c r="S38" s="52"/>
       <c r="T38" s="52"/>
       <c r="U38" s="52"/>
       <c r="V38" s="52"/>
@@ -4623,9 +4388,8 @@
       <c r="Y38" s="52"/>
       <c r="Z38" s="52"/>
       <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>393</v>
       </c>
@@ -4635,24 +4399,22 @@
       <c r="C39" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="D39" s="59" t="s">
-        <v>804</v>
-      </c>
+      <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
       <c r="G39" s="49"/>
       <c r="H39" s="49"/>
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="49"/>
       <c r="M39" s="49"/>
       <c r="N39" s="49"/>
       <c r="O39" s="49"/>
       <c r="P39" s="49"/>
       <c r="Q39" s="49"/>
       <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
+      <c r="S39" s="52"/>
       <c r="T39" s="52"/>
       <c r="U39" s="52"/>
       <c r="V39" s="52"/>
@@ -4661,9 +4423,8 @@
       <c r="Y39" s="52"/>
       <c r="Z39" s="52"/>
       <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>516</v>
       </c>
@@ -4673,24 +4434,22 @@
       <c r="C40" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="D40" s="59" t="s">
-        <v>836</v>
-      </c>
+      <c r="D40" s="49"/>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="49"/>
       <c r="O40" s="49"/>
       <c r="P40" s="49"/>
       <c r="Q40" s="49"/>
       <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
+      <c r="S40" s="52"/>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
       <c r="V40" s="52"/>
@@ -4699,30 +4458,29 @@
       <c r="Y40" s="52"/>
       <c r="Z40" s="52"/>
       <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="49"/>
       <c r="M41" s="49"/>
       <c r="N41" s="49"/>
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>
       <c r="Q41" s="49"/>
       <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
+      <c r="S41" s="52"/>
       <c r="T41" s="52"/>
       <c r="U41" s="52"/>
       <c r="V41" s="52"/>
@@ -4731,16 +4489,15 @@
       <c r="Y41" s="52"/>
       <c r="Z41" s="52"/>
       <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
       <c r="B42" s="55"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="49"/>
       <c r="H42" s="49"/>
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
@@ -4752,7 +4509,7 @@
       <c r="P42" s="49"/>
       <c r="Q42" s="49"/>
       <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
+      <c r="S42" s="56"/>
       <c r="T42" s="56"/>
       <c r="U42" s="56"/>
       <c r="V42" s="56"/>
@@ -4761,9 +4518,8 @@
       <c r="Y42" s="56"/>
       <c r="Z42" s="56"/>
       <c r="AA42" s="56"/>
-      <c r="AB42" s="56"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
         <v>29</v>
       </c>
@@ -4773,16 +4529,14 @@
       <c r="C43" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="D43" s="59" t="s">
-        <v>837</v>
-      </c>
+      <c r="D43" s="49"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="48" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
@@ -4792,7 +4546,7 @@
       <c r="P43" s="49"/>
       <c r="Q43" s="49"/>
       <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
+      <c r="S43" s="56"/>
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
       <c r="V43" s="56"/>
@@ -4801,9 +4555,8 @@
       <c r="Y43" s="56"/>
       <c r="Z43" s="56"/>
       <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
         <v>393</v>
       </c>
@@ -4813,12 +4566,10 @@
       <c r="C44" s="48" t="s">
         <v>559</v>
       </c>
-      <c r="D44" s="59" t="s">
-        <v>559</v>
-      </c>
+      <c r="D44" s="49"/>
       <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="49"/>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
@@ -4830,7 +4581,7 @@
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
       <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
+      <c r="S44" s="56"/>
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
       <c r="V44" s="56"/>
@@ -4839,9 +4590,8 @@
       <c r="Y44" s="56"/>
       <c r="Z44" s="56"/>
       <c r="AA44" s="56"/>
-      <c r="AB44" s="56"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
         <v>393</v>
       </c>
@@ -4851,12 +4601,10 @@
       <c r="C45" s="48" t="s">
         <v>570</v>
       </c>
-      <c r="D45" s="59" t="s">
-        <v>838</v>
-      </c>
+      <c r="D45" s="49"/>
       <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
@@ -4868,7 +4616,7 @@
       <c r="P45" s="49"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
+      <c r="S45" s="56"/>
       <c r="T45" s="56"/>
       <c r="U45" s="56"/>
       <c r="V45" s="56"/>
@@ -4877,9 +4625,8 @@
       <c r="Y45" s="56"/>
       <c r="Z45" s="56"/>
       <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="47" t="s">
         <v>393</v>
       </c>
@@ -4889,12 +4636,10 @@
       <c r="C46" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="D46" s="59" t="s">
-        <v>839</v>
-      </c>
+      <c r="D46" s="49"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
       <c r="J46" s="49"/>
@@ -4906,7 +4651,7 @@
       <c r="P46" s="49"/>
       <c r="Q46" s="49"/>
       <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
+      <c r="S46" s="56"/>
       <c r="T46" s="56"/>
       <c r="U46" s="56"/>
       <c r="V46" s="56"/>
@@ -4915,9 +4660,8 @@
       <c r="Y46" s="56"/>
       <c r="Z46" s="56"/>
       <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
         <v>393</v>
       </c>
@@ -4927,12 +4671,10 @@
       <c r="C47" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="D47" s="59" t="s">
-        <v>805</v>
-      </c>
+      <c r="D47" s="49"/>
       <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
       <c r="J47" s="49"/>
@@ -4944,7 +4686,7 @@
       <c r="P47" s="49"/>
       <c r="Q47" s="49"/>
       <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
+      <c r="S47" s="56"/>
       <c r="T47" s="56"/>
       <c r="U47" s="56"/>
       <c r="V47" s="56"/>
@@ -4953,9 +4695,8 @@
       <c r="Y47" s="56"/>
       <c r="Z47" s="56"/>
       <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="47" t="s">
         <v>393</v>
       </c>
@@ -4965,12 +4706,10 @@
       <c r="C48" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="D48" s="59" t="s">
-        <v>806</v>
-      </c>
+      <c r="D48" s="49"/>
       <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="49"/>
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
@@ -4982,7 +4721,7 @@
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
       <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
+      <c r="S48" s="56"/>
       <c r="T48" s="56"/>
       <c r="U48" s="56"/>
       <c r="V48" s="56"/>
@@ -4991,18 +4730,17 @@
       <c r="Y48" s="56"/>
       <c r="Z48" s="56"/>
       <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B49" s="47"/>
       <c r="C49" s="48"/>
-      <c r="D49" s="59"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
@@ -5014,7 +4752,7 @@
       <c r="P49" s="49"/>
       <c r="Q49" s="49"/>
       <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
+      <c r="S49" s="56"/>
       <c r="T49" s="56"/>
       <c r="U49" s="56"/>
       <c r="V49" s="56"/>
@@ -5023,16 +4761,15 @@
       <c r="Y49" s="56"/>
       <c r="Z49" s="56"/>
       <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="48"/>
-      <c r="D50" s="59"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="49"/>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
@@ -5044,7 +4781,7 @@
       <c r="P50" s="49"/>
       <c r="Q50" s="49"/>
       <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
+      <c r="S50" s="56"/>
       <c r="T50" s="56"/>
       <c r="U50" s="56"/>
       <c r="V50" s="56"/>
@@ -5053,9 +4790,8 @@
       <c r="Y50" s="56"/>
       <c r="Z50" s="56"/>
       <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
         <v>29</v>
       </c>
@@ -5065,16 +4801,14 @@
       <c r="C51" s="48" t="s">
         <v>635</v>
       </c>
-      <c r="D51" s="59" t="s">
-        <v>807</v>
-      </c>
+      <c r="D51" s="49"/>
       <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="48" t="s">
+      <c r="F51" s="50"/>
+      <c r="G51" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
       <c r="J51" s="49"/>
       <c r="K51" s="49"/>
       <c r="L51" s="49"/>
@@ -5084,7 +4818,7 @@
       <c r="P51" s="49"/>
       <c r="Q51" s="49"/>
       <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
+      <c r="S51" s="56"/>
       <c r="T51" s="56"/>
       <c r="U51" s="56"/>
       <c r="V51" s="56"/>
@@ -5093,9 +4827,8 @@
       <c r="Y51" s="56"/>
       <c r="Z51" s="56"/>
       <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
         <v>393</v>
       </c>
@@ -5105,12 +4838,10 @@
       <c r="C52" s="48" t="s">
         <v>646</v>
       </c>
-      <c r="D52" s="59" t="s">
-        <v>840</v>
-      </c>
+      <c r="D52" s="49"/>
       <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="49"/>
       <c r="H52" s="49"/>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
@@ -5122,7 +4853,7 @@
       <c r="P52" s="49"/>
       <c r="Q52" s="49"/>
       <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
+      <c r="S52" s="56"/>
       <c r="T52" s="56"/>
       <c r="U52" s="56"/>
       <c r="V52" s="56"/>
@@ -5131,9 +4862,8 @@
       <c r="Y52" s="56"/>
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
         <v>393</v>
       </c>
@@ -5143,12 +4873,10 @@
       <c r="C53" s="48" t="s">
         <v>659</v>
       </c>
-      <c r="D53" s="59" t="s">
-        <v>808</v>
-      </c>
+      <c r="D53" s="49"/>
       <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
@@ -5160,7 +4888,7 @@
       <c r="P53" s="49"/>
       <c r="Q53" s="49"/>
       <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
+      <c r="S53" s="56"/>
       <c r="T53" s="56"/>
       <c r="U53" s="56"/>
       <c r="V53" s="56"/>
@@ -5169,9 +4897,8 @@
       <c r="Y53" s="56"/>
       <c r="Z53" s="56"/>
       <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
         <v>393</v>
       </c>
@@ -5181,12 +4908,10 @@
       <c r="C54" s="48" t="s">
         <v>672</v>
       </c>
-      <c r="D54" s="59" t="s">
-        <v>809</v>
-      </c>
+      <c r="D54" s="49"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="49"/>
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
@@ -5198,7 +4923,7 @@
       <c r="P54" s="49"/>
       <c r="Q54" s="49"/>
       <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
+      <c r="S54" s="56"/>
       <c r="T54" s="56"/>
       <c r="U54" s="56"/>
       <c r="V54" s="56"/>
@@ -5207,9 +4932,8 @@
       <c r="Y54" s="56"/>
       <c r="Z54" s="56"/>
       <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
         <v>393</v>
       </c>
@@ -5219,12 +4943,10 @@
       <c r="C55" s="48" t="s">
         <v>683</v>
       </c>
-      <c r="D55" s="59" t="s">
-        <v>810</v>
-      </c>
+      <c r="D55" s="49"/>
       <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="49"/>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
@@ -5236,7 +4958,7 @@
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
       <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
+      <c r="S55" s="56"/>
       <c r="T55" s="56"/>
       <c r="U55" s="56"/>
       <c r="V55" s="56"/>
@@ -5245,9 +4967,8 @@
       <c r="Y55" s="56"/>
       <c r="Z55" s="56"/>
       <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47" t="s">
         <v>691</v>
       </c>
@@ -5257,30 +4978,28 @@
       <c r="C56" s="48" t="s">
         <v>695</v>
       </c>
-      <c r="D56" s="59" t="s">
-        <v>811</v>
-      </c>
+      <c r="D56" s="49"/>
       <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="48" t="s">
+        <v>698</v>
+      </c>
       <c r="H56" s="48" t="s">
-        <v>698</v>
-      </c>
-      <c r="I56" s="48" t="s">
         <v>359</v>
       </c>
+      <c r="I56" s="49"/>
       <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="48" t="s">
+      <c r="K56" s="48" t="s">
         <v>701</v>
       </c>
+      <c r="L56" s="49"/>
       <c r="M56" s="49"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
       <c r="Q56" s="49"/>
       <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
+      <c r="S56" s="56"/>
       <c r="T56" s="56"/>
       <c r="U56" s="56"/>
       <c r="V56" s="56"/>
@@ -5289,9 +5008,8 @@
       <c r="Y56" s="56"/>
       <c r="Z56" s="56"/>
       <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47" t="s">
         <v>393</v>
       </c>
@@ -5301,30 +5019,28 @@
       <c r="C57" s="48" t="s">
         <v>707</v>
       </c>
-      <c r="D57" s="59" t="s">
-        <v>812</v>
-      </c>
+      <c r="D57" s="49"/>
       <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="58" t="s">
+      <c r="F57" s="58" t="s">
         <v>708</v>
       </c>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48" t="s">
+      <c r="G57" s="48"/>
+      <c r="H57" s="48" t="s">
         <v>359</v>
       </c>
+      <c r="I57" s="49"/>
       <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="48" t="s">
+      <c r="K57" s="48" t="s">
         <v>709</v>
       </c>
+      <c r="L57" s="49"/>
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
       <c r="P57" s="49"/>
       <c r="Q57" s="49"/>
       <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
+      <c r="S57" s="56"/>
       <c r="T57" s="56"/>
       <c r="U57" s="56"/>
       <c r="V57" s="56"/>
@@ -5333,9 +5049,8 @@
       <c r="Y57" s="56"/>
       <c r="Z57" s="56"/>
       <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
         <v>427</v>
       </c>
@@ -5345,14 +5060,12 @@
       <c r="C58" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="59" t="s">
-        <v>800</v>
-      </c>
+      <c r="D58" s="49"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="53" t="s">
+      <c r="F58" s="53" t="s">
         <v>711</v>
       </c>
+      <c r="G58" s="49"/>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -5364,7 +5077,7 @@
       <c r="P58" s="49"/>
       <c r="Q58" s="49"/>
       <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
+      <c r="S58" s="56"/>
       <c r="T58" s="56"/>
       <c r="U58" s="56"/>
       <c r="V58" s="56"/>
@@ -5373,9 +5086,8 @@
       <c r="Y58" s="56"/>
       <c r="Z58" s="56"/>
       <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>691</v>
       </c>
@@ -5385,17 +5097,15 @@
       <c r="C59" s="48" t="s">
         <v>713</v>
       </c>
-      <c r="D59" s="59" t="s">
-        <v>813</v>
-      </c>
+      <c r="D59" s="49"/>
       <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
+      <c r="F59" s="48" t="s">
+        <v>714</v>
+      </c>
       <c r="G59" s="48" t="s">
-        <v>714</v>
-      </c>
-      <c r="H59" s="48" t="s">
         <v>698</v>
       </c>
+      <c r="H59" s="49"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
       <c r="K59" s="49"/>
@@ -5406,7 +5116,7 @@
       <c r="P59" s="49"/>
       <c r="Q59" s="49"/>
       <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
+      <c r="S59" s="56"/>
       <c r="T59" s="56"/>
       <c r="U59" s="56"/>
       <c r="V59" s="56"/>
@@ -5415,9 +5125,8 @@
       <c r="Y59" s="56"/>
       <c r="Z59" s="56"/>
       <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>393</v>
       </c>
@@ -5427,14 +5136,12 @@
       <c r="C60" s="59" t="s">
         <v>716</v>
       </c>
-      <c r="D60" s="59" t="s">
-        <v>814</v>
-      </c>
+      <c r="D60" s="52"/>
       <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="58" t="s">
+      <c r="F60" s="58" t="s">
         <v>718</v>
       </c>
+      <c r="G60" s="49"/>
       <c r="H60" s="49"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
@@ -5446,7 +5153,7 @@
       <c r="P60" s="49"/>
       <c r="Q60" s="49"/>
       <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
+      <c r="S60" s="56"/>
       <c r="T60" s="56"/>
       <c r="U60" s="56"/>
       <c r="V60" s="56"/>
@@ -5455,9 +5162,8 @@
       <c r="Y60" s="56"/>
       <c r="Z60" s="56"/>
       <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>393</v>
       </c>
@@ -5467,12 +5173,10 @@
       <c r="C61" s="48" t="s">
         <v>720</v>
       </c>
-      <c r="D61" s="59" t="s">
-        <v>815</v>
-      </c>
+      <c r="D61" s="49"/>
       <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
@@ -5484,7 +5188,7 @@
       <c r="P61" s="49"/>
       <c r="Q61" s="49"/>
       <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
+      <c r="S61" s="56"/>
       <c r="T61" s="56"/>
       <c r="U61" s="56"/>
       <c r="V61" s="56"/>
@@ -5493,18 +5197,17 @@
       <c r="Y61" s="56"/>
       <c r="Z61" s="56"/>
       <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="47"/>
       <c r="C62" s="48"/>
-      <c r="D62" s="59"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="49"/>
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
@@ -5516,7 +5219,7 @@
       <c r="P62" s="49"/>
       <c r="Q62" s="49"/>
       <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
+      <c r="S62" s="56"/>
       <c r="T62" s="56"/>
       <c r="U62" s="56"/>
       <c r="V62" s="56"/>
@@ -5525,16 +5228,15 @@
       <c r="Y62" s="56"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
-      <c r="D63" s="59"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="49"/>
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
@@ -5546,7 +5248,7 @@
       <c r="P63" s="49"/>
       <c r="Q63" s="49"/>
       <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
+      <c r="S63" s="56"/>
       <c r="T63" s="56"/>
       <c r="U63" s="56"/>
       <c r="V63" s="56"/>
@@ -5555,9 +5257,8 @@
       <c r="Y63" s="56"/>
       <c r="Z63" s="56"/>
       <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
         <v>29</v>
       </c>
@@ -5567,16 +5268,14 @@
       <c r="C64" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="D64" s="59" t="s">
-        <v>816</v>
-      </c>
+      <c r="D64" s="49"/>
       <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="48" t="s">
+      <c r="F64" s="50"/>
+      <c r="G64" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="49"/>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
@@ -5586,7 +5285,7 @@
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
       <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
+      <c r="S64" s="56"/>
       <c r="T64" s="56"/>
       <c r="U64" s="56"/>
       <c r="V64" s="56"/>
@@ -5595,9 +5294,8 @@
       <c r="Y64" s="56"/>
       <c r="Z64" s="56"/>
       <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
         <v>393</v>
       </c>
@@ -5607,12 +5305,10 @@
       <c r="C65" s="48" t="s">
         <v>724</v>
       </c>
-      <c r="D65" s="59" t="s">
-        <v>817</v>
-      </c>
+      <c r="D65" s="49"/>
       <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="49"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
@@ -5624,7 +5320,7 @@
       <c r="P65" s="49"/>
       <c r="Q65" s="49"/>
       <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
+      <c r="S65" s="56"/>
       <c r="T65" s="56"/>
       <c r="U65" s="56"/>
       <c r="V65" s="56"/>
@@ -5633,9 +5329,8 @@
       <c r="Y65" s="56"/>
       <c r="Z65" s="56"/>
       <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
         <v>393</v>
       </c>
@@ -5645,12 +5340,10 @@
       <c r="C66" s="48" t="s">
         <v>725</v>
       </c>
-      <c r="D66" s="59" t="s">
-        <v>841</v>
-      </c>
+      <c r="D66" s="49"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="49"/>
       <c r="H66" s="49"/>
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
@@ -5662,7 +5355,7 @@
       <c r="P66" s="49"/>
       <c r="Q66" s="49"/>
       <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
+      <c r="S66" s="56"/>
       <c r="T66" s="56"/>
       <c r="U66" s="56"/>
       <c r="V66" s="56"/>
@@ -5671,9 +5364,8 @@
       <c r="Y66" s="56"/>
       <c r="Z66" s="56"/>
       <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="47" t="s">
         <v>393</v>
       </c>
@@ -5683,12 +5375,10 @@
       <c r="C67" s="48" t="s">
         <v>728</v>
       </c>
-      <c r="D67" s="59" t="s">
-        <v>818</v>
-      </c>
+      <c r="D67" s="49"/>
       <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="49"/>
       <c r="H67" s="49"/>
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
@@ -5700,7 +5390,7 @@
       <c r="P67" s="49"/>
       <c r="Q67" s="49"/>
       <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
+      <c r="S67" s="56"/>
       <c r="T67" s="56"/>
       <c r="U67" s="56"/>
       <c r="V67" s="56"/>
@@ -5709,9 +5399,8 @@
       <c r="Y67" s="56"/>
       <c r="Z67" s="56"/>
       <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="47" t="s">
         <v>393</v>
       </c>
@@ -5721,12 +5410,10 @@
       <c r="C68" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="D68" s="59" t="s">
-        <v>819</v>
-      </c>
+      <c r="D68" s="49"/>
       <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="49"/>
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
@@ -5738,7 +5425,7 @@
       <c r="P68" s="49"/>
       <c r="Q68" s="49"/>
       <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
+      <c r="S68" s="56"/>
       <c r="T68" s="56"/>
       <c r="U68" s="56"/>
       <c r="V68" s="56"/>
@@ -5747,9 +5434,8 @@
       <c r="Y68" s="56"/>
       <c r="Z68" s="56"/>
       <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-    </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="47" t="s">
         <v>393</v>
       </c>
@@ -5759,12 +5445,10 @@
       <c r="C69" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="D69" s="59" t="s">
-        <v>820</v>
-      </c>
+      <c r="D69" s="49"/>
       <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
@@ -5776,7 +5460,7 @@
       <c r="P69" s="49"/>
       <c r="Q69" s="49"/>
       <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
+      <c r="S69" s="56"/>
       <c r="T69" s="56"/>
       <c r="U69" s="56"/>
       <c r="V69" s="56"/>
@@ -5785,9 +5469,8 @@
       <c r="Y69" s="56"/>
       <c r="Z69" s="56"/>
       <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-    </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="47" t="s">
         <v>691</v>
       </c>
@@ -5797,28 +5480,26 @@
       <c r="C70" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="D70" s="59" t="s">
-        <v>821</v>
-      </c>
+      <c r="D70" s="49"/>
       <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="48" t="s">
+      <c r="F70" s="50"/>
+      <c r="G70" s="48" t="s">
         <v>698</v>
       </c>
+      <c r="H70" s="49"/>
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
       <c r="K70" s="49"/>
       <c r="L70" s="49"/>
       <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="48" t="s">
+      <c r="N70" s="48" t="s">
         <v>415</v>
       </c>
+      <c r="O70" s="49"/>
       <c r="P70" s="49"/>
       <c r="Q70" s="49"/>
       <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
+      <c r="S70" s="56"/>
       <c r="T70" s="56"/>
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
@@ -5827,9 +5508,8 @@
       <c r="Y70" s="56"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-    </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="47" t="s">
         <v>393</v>
       </c>
@@ -5839,14 +5519,12 @@
       <c r="C71" s="59" t="s">
         <v>716</v>
       </c>
-      <c r="D71" s="59" t="s">
-        <v>814</v>
-      </c>
+      <c r="D71" s="52"/>
       <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="58" t="s">
+      <c r="F71" s="58" t="s">
         <v>708</v>
       </c>
+      <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
@@ -5858,7 +5536,7 @@
       <c r="P71" s="49"/>
       <c r="Q71" s="49"/>
       <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
+      <c r="S71" s="56"/>
       <c r="T71" s="56"/>
       <c r="U71" s="56"/>
       <c r="V71" s="56"/>
@@ -5867,9 +5545,8 @@
       <c r="Y71" s="56"/>
       <c r="Z71" s="56"/>
       <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="47" t="s">
         <v>393</v>
       </c>
@@ -5879,12 +5556,10 @@
       <c r="C72" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="D72" s="59" t="s">
-        <v>822</v>
-      </c>
+      <c r="D72" s="49"/>
       <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="49"/>
       <c r="H72" s="49"/>
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
@@ -5896,7 +5571,7 @@
       <c r="P72" s="49"/>
       <c r="Q72" s="49"/>
       <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
+      <c r="S72" s="56"/>
       <c r="T72" s="56"/>
       <c r="U72" s="56"/>
       <c r="V72" s="56"/>
@@ -5905,18 +5580,17 @@
       <c r="Y72" s="56"/>
       <c r="Z72" s="56"/>
       <c r="AA72" s="56"/>
-      <c r="AB72" s="56"/>
-    </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B73" s="47"/>
       <c r="C73" s="48"/>
-      <c r="D73" s="59"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="49"/>
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
@@ -5928,7 +5602,7 @@
       <c r="P73" s="49"/>
       <c r="Q73" s="49"/>
       <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
+      <c r="S73" s="56"/>
       <c r="T73" s="56"/>
       <c r="U73" s="56"/>
       <c r="V73" s="56"/>
@@ -5937,16 +5611,15 @@
       <c r="Y73" s="56"/>
       <c r="Z73" s="56"/>
       <c r="AA73" s="56"/>
-      <c r="AB73" s="56"/>
-    </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="48"/>
-      <c r="D74" s="59"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="49"/>
       <c r="H74" s="49"/>
       <c r="I74" s="49"/>
       <c r="J74" s="49"/>
@@ -5958,7 +5631,7 @@
       <c r="P74" s="49"/>
       <c r="Q74" s="49"/>
       <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
+      <c r="S74" s="56"/>
       <c r="T74" s="56"/>
       <c r="U74" s="56"/>
       <c r="V74" s="56"/>
@@ -5967,9 +5640,8 @@
       <c r="Y74" s="56"/>
       <c r="Z74" s="56"/>
       <c r="AA74" s="56"/>
-      <c r="AB74" s="56"/>
-    </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="47" t="s">
         <v>29</v>
       </c>
@@ -5979,16 +5651,14 @@
       <c r="C75" s="48" t="s">
         <v>772</v>
       </c>
-      <c r="D75" s="59" t="s">
-        <v>823</v>
-      </c>
+      <c r="D75" s="49"/>
       <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="48" t="s">
+      <c r="F75" s="50"/>
+      <c r="G75" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
       <c r="J75" s="49"/>
       <c r="K75" s="49"/>
       <c r="L75" s="49"/>
@@ -5998,7 +5668,7 @@
       <c r="P75" s="49"/>
       <c r="Q75" s="49"/>
       <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
+      <c r="S75" s="56"/>
       <c r="T75" s="56"/>
       <c r="U75" s="56"/>
       <c r="V75" s="56"/>
@@ -6007,9 +5677,8 @@
       <c r="Y75" s="56"/>
       <c r="Z75" s="56"/>
       <c r="AA75" s="56"/>
-      <c r="AB75" s="56"/>
-    </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="47" t="s">
         <v>393</v>
       </c>
@@ -6019,14 +5688,12 @@
       <c r="C76" s="48" t="s">
         <v>773</v>
       </c>
-      <c r="D76" s="59" t="s">
-        <v>842</v>
-      </c>
+      <c r="D76" s="49"/>
       <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
+      <c r="F76" s="50"/>
       <c r="G76" s="50"/>
       <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
+      <c r="I76" s="49"/>
       <c r="J76" s="49"/>
       <c r="K76" s="49"/>
       <c r="L76" s="49"/>
@@ -6036,7 +5703,7 @@
       <c r="P76" s="49"/>
       <c r="Q76" s="49"/>
       <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
+      <c r="S76" s="56"/>
       <c r="T76" s="56"/>
       <c r="U76" s="56"/>
       <c r="V76" s="56"/>
@@ -6045,9 +5712,8 @@
       <c r="Y76" s="56"/>
       <c r="Z76" s="56"/>
       <c r="AA76" s="56"/>
-      <c r="AB76" s="56"/>
-    </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
         <v>393</v>
       </c>
@@ -6057,14 +5723,12 @@
       <c r="C77" s="48" t="s">
         <v>774</v>
       </c>
-      <c r="D77" s="59" t="s">
-        <v>843</v>
-      </c>
+      <c r="D77" s="49"/>
       <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
+      <c r="F77" s="50"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
+      <c r="I77" s="49"/>
       <c r="J77" s="49"/>
       <c r="K77" s="49"/>
       <c r="L77" s="49"/>
@@ -6074,7 +5738,7 @@
       <c r="P77" s="49"/>
       <c r="Q77" s="49"/>
       <c r="R77" s="49"/>
-      <c r="S77" s="49"/>
+      <c r="S77" s="56"/>
       <c r="T77" s="56"/>
       <c r="U77" s="56"/>
       <c r="V77" s="56"/>
@@ -6083,9 +5747,8 @@
       <c r="Y77" s="56"/>
       <c r="Z77" s="56"/>
       <c r="AA77" s="56"/>
-      <c r="AB77" s="56"/>
-    </row>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="47" t="s">
         <v>393</v>
       </c>
@@ -6095,14 +5758,12 @@
       <c r="C78" s="48" t="s">
         <v>777</v>
       </c>
-      <c r="D78" s="59" t="s">
-        <v>824</v>
-      </c>
+      <c r="D78" s="49"/>
       <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
+      <c r="F78" s="50"/>
       <c r="G78" s="50"/>
       <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
+      <c r="I78" s="49"/>
       <c r="J78" s="49"/>
       <c r="K78" s="49"/>
       <c r="L78" s="49"/>
@@ -6112,7 +5773,7 @@
       <c r="P78" s="49"/>
       <c r="Q78" s="49"/>
       <c r="R78" s="49"/>
-      <c r="S78" s="49"/>
+      <c r="S78" s="56"/>
       <c r="T78" s="56"/>
       <c r="U78" s="56"/>
       <c r="V78" s="56"/>
@@ -6121,9 +5782,8 @@
       <c r="Y78" s="56"/>
       <c r="Z78" s="56"/>
       <c r="AA78" s="56"/>
-      <c r="AB78" s="56"/>
-    </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
         <v>691</v>
       </c>
@@ -6133,16 +5793,14 @@
       <c r="C79" s="48" t="s">
         <v>778</v>
       </c>
-      <c r="D79" s="59" t="s">
-        <v>825</v>
-      </c>
+      <c r="D79" s="49"/>
       <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="48" t="s">
+      <c r="F79" s="50"/>
+      <c r="G79" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="I79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="49"/>
       <c r="J79" s="49"/>
       <c r="K79" s="49"/>
       <c r="L79" s="49"/>
@@ -6152,7 +5810,7 @@
       <c r="P79" s="49"/>
       <c r="Q79" s="49"/>
       <c r="R79" s="49"/>
-      <c r="S79" s="49"/>
+      <c r="S79" s="56"/>
       <c r="T79" s="56"/>
       <c r="U79" s="56"/>
       <c r="V79" s="56"/>
@@ -6161,9 +5819,8 @@
       <c r="Y79" s="56"/>
       <c r="Z79" s="56"/>
       <c r="AA79" s="56"/>
-      <c r="AB79" s="56"/>
-    </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
         <v>393</v>
       </c>
@@ -6173,14 +5830,12 @@
       <c r="C80" s="59" t="s">
         <v>716</v>
       </c>
-      <c r="D80" s="59" t="s">
-        <v>814</v>
-      </c>
+      <c r="D80" s="52"/>
       <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="58" t="s">
+      <c r="F80" s="58" t="s">
         <v>708</v>
       </c>
+      <c r="G80" s="49"/>
       <c r="H80" s="49"/>
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
@@ -6192,7 +5847,7 @@
       <c r="P80" s="49"/>
       <c r="Q80" s="49"/>
       <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
+      <c r="S80" s="56"/>
       <c r="T80" s="56"/>
       <c r="U80" s="56"/>
       <c r="V80" s="56"/>
@@ -6201,9 +5856,8 @@
       <c r="Y80" s="56"/>
       <c r="Z80" s="56"/>
       <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-    </row>
-    <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
         <v>393</v>
       </c>
@@ -6213,14 +5867,12 @@
       <c r="C81" s="48" t="s">
         <v>779</v>
       </c>
-      <c r="D81" s="59" t="s">
-        <v>779</v>
-      </c>
+      <c r="D81" s="49"/>
       <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
+      <c r="F81" s="50"/>
       <c r="G81" s="50"/>
       <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
+      <c r="I81" s="49"/>
       <c r="J81" s="49"/>
       <c r="K81" s="49"/>
       <c r="L81" s="49"/>
@@ -6230,7 +5882,7 @@
       <c r="P81" s="49"/>
       <c r="Q81" s="49"/>
       <c r="R81" s="49"/>
-      <c r="S81" s="49"/>
+      <c r="S81" s="56"/>
       <c r="T81" s="56"/>
       <c r="U81" s="56"/>
       <c r="V81" s="56"/>
@@ -6239,9 +5891,8 @@
       <c r="Y81" s="56"/>
       <c r="Z81" s="56"/>
       <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-    </row>
-    <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="47" t="s">
         <v>393</v>
       </c>
@@ -6251,14 +5902,12 @@
       <c r="C82" s="48" t="s">
         <v>780</v>
       </c>
-      <c r="D82" s="59" t="s">
-        <v>826</v>
-      </c>
+      <c r="D82" s="49"/>
       <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
+      <c r="F82" s="50"/>
       <c r="G82" s="50"/>
       <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
+      <c r="I82" s="49"/>
       <c r="J82" s="49"/>
       <c r="K82" s="49"/>
       <c r="L82" s="49"/>
@@ -6268,7 +5917,7 @@
       <c r="P82" s="49"/>
       <c r="Q82" s="49"/>
       <c r="R82" s="49"/>
-      <c r="S82" s="49"/>
+      <c r="S82" s="56"/>
       <c r="T82" s="56"/>
       <c r="U82" s="56"/>
       <c r="V82" s="56"/>
@@ -6277,9 +5926,8 @@
       <c r="Y82" s="56"/>
       <c r="Z82" s="56"/>
       <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-    </row>
-    <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="47" t="s">
         <v>393</v>
       </c>
@@ -6289,14 +5937,12 @@
       <c r="C83" s="48" t="s">
         <v>781</v>
       </c>
-      <c r="D83" s="59" t="s">
-        <v>827</v>
-      </c>
+      <c r="D83" s="49"/>
       <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
+      <c r="F83" s="50"/>
       <c r="G83" s="50"/>
       <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
+      <c r="I83" s="49"/>
       <c r="J83" s="49"/>
       <c r="K83" s="49"/>
       <c r="L83" s="49"/>
@@ -6306,7 +5952,7 @@
       <c r="P83" s="49"/>
       <c r="Q83" s="49"/>
       <c r="R83" s="49"/>
-      <c r="S83" s="49"/>
+      <c r="S83" s="56"/>
       <c r="T83" s="56"/>
       <c r="U83" s="56"/>
       <c r="V83" s="56"/>
@@ -6315,20 +5961,19 @@
       <c r="Y83" s="56"/>
       <c r="Z83" s="56"/>
       <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-    </row>
-    <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B84" s="47"/>
       <c r="C84" s="48"/>
-      <c r="D84" s="59"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
+      <c r="F84" s="50"/>
       <c r="G84" s="50"/>
       <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
+      <c r="I84" s="49"/>
       <c r="J84" s="49"/>
       <c r="K84" s="49"/>
       <c r="L84" s="49"/>
@@ -6338,7 +5983,7 @@
       <c r="P84" s="49"/>
       <c r="Q84" s="49"/>
       <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
+      <c r="S84" s="56"/>
       <c r="T84" s="56"/>
       <c r="U84" s="56"/>
       <c r="V84" s="56"/>
@@ -6347,18 +5992,17 @@
       <c r="Y84" s="56"/>
       <c r="Z84" s="56"/>
       <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-    </row>
-    <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="47"/>
       <c r="B85" s="47"/>
       <c r="C85" s="48"/>
-      <c r="D85" s="59"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
+      <c r="F85" s="50"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
+      <c r="I85" s="49"/>
       <c r="J85" s="49"/>
       <c r="K85" s="49"/>
       <c r="L85" s="49"/>
@@ -6368,7 +6012,7 @@
       <c r="P85" s="49"/>
       <c r="Q85" s="49"/>
       <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
+      <c r="S85" s="56"/>
       <c r="T85" s="56"/>
       <c r="U85" s="56"/>
       <c r="V85" s="56"/>
@@ -6377,9 +6021,8 @@
       <c r="Y85" s="56"/>
       <c r="Z85" s="56"/>
       <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-    </row>
-    <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="47" t="s">
         <v>782</v>
       </c>
@@ -6389,14 +6032,12 @@
       <c r="C86" s="48" t="s">
         <v>784</v>
       </c>
-      <c r="D86" s="59" t="s">
-        <v>844</v>
-      </c>
+      <c r="D86" s="49"/>
       <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
+      <c r="F86" s="50"/>
       <c r="G86" s="50"/>
       <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
+      <c r="I86" s="49"/>
       <c r="J86" s="49"/>
       <c r="K86" s="49"/>
       <c r="L86" s="49"/>
@@ -6406,7 +6047,7 @@
       <c r="P86" s="49"/>
       <c r="Q86" s="49"/>
       <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
+      <c r="S86" s="56"/>
       <c r="T86" s="56"/>
       <c r="U86" s="56"/>
       <c r="V86" s="56"/>
@@ -6415,9 +6056,8 @@
       <c r="Y86" s="56"/>
       <c r="Z86" s="56"/>
       <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-    </row>
-    <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="47" t="s">
         <v>393</v>
       </c>
@@ -6427,14 +6067,12 @@
       <c r="C87" s="48" t="s">
         <v>785</v>
       </c>
-      <c r="D87" s="59" t="s">
-        <v>845</v>
-      </c>
+      <c r="D87" s="49"/>
       <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
+      <c r="F87" s="50"/>
       <c r="G87" s="50"/>
       <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
+      <c r="I87" s="49"/>
       <c r="J87" s="49"/>
       <c r="K87" s="49"/>
       <c r="L87" s="49"/>
@@ -6444,7 +6082,7 @@
       <c r="P87" s="49"/>
       <c r="Q87" s="49"/>
       <c r="R87" s="49"/>
-      <c r="S87" s="49"/>
+      <c r="S87" s="56"/>
       <c r="T87" s="56"/>
       <c r="U87" s="56"/>
       <c r="V87" s="56"/>
@@ -6453,9 +6091,8 @@
       <c r="Y87" s="56"/>
       <c r="Z87" s="56"/>
       <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-    </row>
-    <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="47" t="s">
         <v>393</v>
       </c>
@@ -6465,14 +6102,12 @@
       <c r="C88" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="D88" s="59" t="s">
-        <v>828</v>
-      </c>
+      <c r="D88" s="49"/>
       <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="F88" s="50"/>
       <c r="G88" s="50"/>
       <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
+      <c r="I88" s="49"/>
       <c r="J88" s="49"/>
       <c r="K88" s="49"/>
       <c r="L88" s="49"/>
@@ -6482,7 +6117,7 @@
       <c r="P88" s="49"/>
       <c r="Q88" s="49"/>
       <c r="R88" s="49"/>
-      <c r="S88" s="49"/>
+      <c r="S88" s="56"/>
       <c r="T88" s="56"/>
       <c r="U88" s="56"/>
       <c r="V88" s="56"/>
@@ -6491,9 +6126,8 @@
       <c r="Y88" s="56"/>
       <c r="Z88" s="56"/>
       <c r="AA88" s="56"/>
-      <c r="AB88" s="56"/>
-    </row>
-    <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
         <v>393</v>
       </c>
@@ -6503,14 +6137,12 @@
       <c r="C89" s="48" t="s">
         <v>787</v>
       </c>
-      <c r="D89" s="59" t="s">
-        <v>829</v>
-      </c>
+      <c r="D89" s="49"/>
       <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
+      <c r="F89" s="50"/>
       <c r="G89" s="50"/>
       <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
+      <c r="I89" s="49"/>
       <c r="J89" s="49"/>
       <c r="K89" s="49"/>
       <c r="L89" s="49"/>
@@ -6520,7 +6152,7 @@
       <c r="P89" s="49"/>
       <c r="Q89" s="49"/>
       <c r="R89" s="49"/>
-      <c r="S89" s="49"/>
+      <c r="S89" s="56"/>
       <c r="T89" s="56"/>
       <c r="U89" s="56"/>
       <c r="V89" s="56"/>
@@ -6529,9 +6161,8 @@
       <c r="Y89" s="56"/>
       <c r="Z89" s="56"/>
       <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-    </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="47" t="s">
         <v>788</v>
       </c>
@@ -6541,14 +6172,12 @@
       <c r="C90" s="48" t="s">
         <v>790</v>
       </c>
-      <c r="D90" s="59" t="s">
-        <v>830</v>
-      </c>
+      <c r="D90" s="49"/>
       <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
+      <c r="F90" s="50"/>
       <c r="G90" s="50"/>
       <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
+      <c r="I90" s="49"/>
       <c r="J90" s="49"/>
       <c r="K90" s="49"/>
       <c r="L90" s="49"/>
@@ -6558,7 +6187,7 @@
       <c r="P90" s="49"/>
       <c r="Q90" s="49"/>
       <c r="R90" s="49"/>
-      <c r="S90" s="49"/>
+      <c r="S90" s="56"/>
       <c r="T90" s="56"/>
       <c r="U90" s="56"/>
       <c r="V90" s="56"/>
@@ -6567,20 +6196,19 @@
       <c r="Y90" s="56"/>
       <c r="Z90" s="56"/>
       <c r="AA90" s="56"/>
-      <c r="AB90" s="56"/>
-    </row>
-    <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="47" t="s">
         <v>791</v>
       </c>
       <c r="B91" s="47"/>
       <c r="C91" s="48"/>
-      <c r="D91" s="59"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
+      <c r="F91" s="50"/>
       <c r="G91" s="50"/>
       <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
+      <c r="I91" s="49"/>
       <c r="J91" s="49"/>
       <c r="K91" s="49"/>
       <c r="L91" s="49"/>
@@ -6590,7 +6218,7 @@
       <c r="P91" s="49"/>
       <c r="Q91" s="49"/>
       <c r="R91" s="49"/>
-      <c r="S91" s="49"/>
+      <c r="S91" s="56"/>
       <c r="T91" s="56"/>
       <c r="U91" s="56"/>
       <c r="V91" s="56"/>
@@ -6599,18 +6227,17 @@
       <c r="Y91" s="56"/>
       <c r="Z91" s="56"/>
       <c r="AA91" s="56"/>
-      <c r="AB91" s="56"/>
-    </row>
-    <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="47"/>
       <c r="B92" s="47"/>
       <c r="C92" s="48"/>
-      <c r="D92" s="59"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
+      <c r="F92" s="50"/>
       <c r="G92" s="50"/>
       <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
+      <c r="I92" s="49"/>
       <c r="J92" s="49"/>
       <c r="K92" s="49"/>
       <c r="L92" s="49"/>
@@ -6620,7 +6247,7 @@
       <c r="P92" s="49"/>
       <c r="Q92" s="49"/>
       <c r="R92" s="49"/>
-      <c r="S92" s="49"/>
+      <c r="S92" s="56"/>
       <c r="T92" s="56"/>
       <c r="U92" s="56"/>
       <c r="V92" s="56"/>
@@ -6629,9 +6256,8 @@
       <c r="Y92" s="56"/>
       <c r="Z92" s="56"/>
       <c r="AA92" s="56"/>
-      <c r="AB92" s="56"/>
-    </row>
-    <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="47" t="s">
         <v>782</v>
       </c>
@@ -6641,14 +6267,12 @@
       <c r="C93" s="48" t="s">
         <v>793</v>
       </c>
-      <c r="D93" s="59" t="s">
-        <v>831</v>
-      </c>
+      <c r="D93" s="49"/>
       <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
+      <c r="F93" s="50"/>
       <c r="G93" s="50"/>
       <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
+      <c r="I93" s="49"/>
       <c r="J93" s="49"/>
       <c r="K93" s="49"/>
       <c r="L93" s="49"/>
@@ -6658,7 +6282,7 @@
       <c r="P93" s="49"/>
       <c r="Q93" s="49"/>
       <c r="R93" s="49"/>
-      <c r="S93" s="49"/>
+      <c r="S93" s="56"/>
       <c r="T93" s="56"/>
       <c r="U93" s="56"/>
       <c r="V93" s="56"/>
@@ -6667,9 +6291,8 @@
       <c r="Y93" s="56"/>
       <c r="Z93" s="56"/>
       <c r="AA93" s="56"/>
-      <c r="AB93" s="56"/>
-    </row>
-    <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="47" t="s">
         <v>393</v>
       </c>
@@ -6679,14 +6302,12 @@
       <c r="C94" s="48" t="s">
         <v>785</v>
       </c>
-      <c r="D94" s="59" t="s">
-        <v>845</v>
-      </c>
+      <c r="D94" s="49"/>
       <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
+      <c r="F94" s="50"/>
       <c r="G94" s="50"/>
       <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
+      <c r="I94" s="49"/>
       <c r="J94" s="49"/>
       <c r="K94" s="49"/>
       <c r="L94" s="49"/>
@@ -6696,7 +6317,7 @@
       <c r="P94" s="49"/>
       <c r="Q94" s="49"/>
       <c r="R94" s="49"/>
-      <c r="S94" s="49"/>
+      <c r="S94" s="56"/>
       <c r="T94" s="56"/>
       <c r="U94" s="56"/>
       <c r="V94" s="56"/>
@@ -6705,9 +6326,8 @@
       <c r="Y94" s="56"/>
       <c r="Z94" s="56"/>
       <c r="AA94" s="56"/>
-      <c r="AB94" s="56"/>
-    </row>
-    <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="47" t="s">
         <v>393</v>
       </c>
@@ -6717,14 +6337,12 @@
       <c r="C95" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="D95" s="59" t="s">
-        <v>828</v>
-      </c>
+      <c r="D95" s="49"/>
       <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
+      <c r="F95" s="50"/>
       <c r="G95" s="50"/>
       <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
+      <c r="I95" s="49"/>
       <c r="J95" s="49"/>
       <c r="K95" s="49"/>
       <c r="L95" s="49"/>
@@ -6734,7 +6352,7 @@
       <c r="P95" s="49"/>
       <c r="Q95" s="49"/>
       <c r="R95" s="49"/>
-      <c r="S95" s="49"/>
+      <c r="S95" s="56"/>
       <c r="T95" s="56"/>
       <c r="U95" s="56"/>
       <c r="V95" s="56"/>
@@ -6743,9 +6361,8 @@
       <c r="Y95" s="56"/>
       <c r="Z95" s="56"/>
       <c r="AA95" s="56"/>
-      <c r="AB95" s="56"/>
-    </row>
-    <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="47" t="s">
         <v>393</v>
       </c>
@@ -6755,14 +6372,12 @@
       <c r="C96" s="48" t="s">
         <v>795</v>
       </c>
-      <c r="D96" s="59" t="s">
-        <v>832</v>
-      </c>
+      <c r="D96" s="49"/>
       <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
+      <c r="F96" s="50"/>
       <c r="G96" s="50"/>
       <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
+      <c r="I96" s="49"/>
       <c r="J96" s="49"/>
       <c r="K96" s="49"/>
       <c r="L96" s="49"/>
@@ -6772,7 +6387,7 @@
       <c r="P96" s="49"/>
       <c r="Q96" s="49"/>
       <c r="R96" s="49"/>
-      <c r="S96" s="49"/>
+      <c r="S96" s="56"/>
       <c r="T96" s="56"/>
       <c r="U96" s="56"/>
       <c r="V96" s="56"/>
@@ -6781,20 +6396,19 @@
       <c r="Y96" s="56"/>
       <c r="Z96" s="56"/>
       <c r="AA96" s="56"/>
-      <c r="AB96" s="56"/>
-    </row>
-    <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="47" t="s">
         <v>791</v>
       </c>
       <c r="B97" s="47"/>
       <c r="C97" s="48"/>
-      <c r="D97" s="59"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
+      <c r="F97" s="50"/>
       <c r="G97" s="50"/>
       <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
+      <c r="I97" s="49"/>
       <c r="J97" s="49"/>
       <c r="K97" s="49"/>
       <c r="L97" s="49"/>
@@ -6804,7 +6418,7 @@
       <c r="P97" s="49"/>
       <c r="Q97" s="49"/>
       <c r="R97" s="49"/>
-      <c r="S97" s="49"/>
+      <c r="S97" s="56"/>
       <c r="T97" s="56"/>
       <c r="U97" s="56"/>
       <c r="V97" s="56"/>
@@ -6813,11 +6427,10 @@
       <c r="Y97" s="56"/>
       <c r="Z97" s="56"/>
       <c r="AA97" s="56"/>
-      <c r="AB97" s="56"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F97">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E97">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6830,20 +6443,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P255"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="16" width="45.85546875" customWidth="1"/>
+    <col min="2" max="15" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6853,9 +6466,7 @@
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>846</v>
-      </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -6867,9 +6478,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -6879,9 +6489,7 @@
       <c r="C2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>847</v>
-      </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -6893,9 +6501,8 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
@@ -6905,11 +6512,8 @@
       <c r="C3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>48</v>
       </c>
@@ -6919,9 +6523,7 @@
       <c r="C4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>849</v>
-      </c>
+      <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -6933,9 +6535,8 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>48</v>
       </c>
@@ -6945,9 +6546,7 @@
       <c r="C5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>850</v>
-      </c>
+      <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -6959,9 +6558,8 @@
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>57</v>
       </c>
@@ -6971,11 +6569,8 @@
       <c r="C6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>57</v>
       </c>
@@ -6985,11 +6580,8 @@
       <c r="C7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
@@ -6999,11 +6591,8 @@
       <c r="C8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>57</v>
       </c>
@@ -7013,11 +6602,8 @@
       <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>57</v>
       </c>
@@ -7027,11 +6613,8 @@
       <c r="C10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>57</v>
       </c>
@@ -7041,11 +6624,8 @@
       <c r="C11" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>57</v>
       </c>
@@ -7055,11 +6635,8 @@
       <c r="C12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>57</v>
       </c>
@@ -7069,11 +6646,8 @@
       <c r="C13" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
@@ -7083,11 +6657,8 @@
       <c r="C14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>57</v>
       </c>
@@ -7097,11 +6668,8 @@
       <c r="C15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>57</v>
       </c>
@@ -7111,11 +6679,8 @@
       <c r="C16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>57</v>
       </c>
@@ -7125,11 +6690,8 @@
       <c r="C17" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
@@ -7139,11 +6701,8 @@
       <c r="C18" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>57</v>
       </c>
@@ -7153,11 +6712,8 @@
       <c r="C19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>57</v>
       </c>
@@ -7167,11 +6723,8 @@
       <c r="C20" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>57</v>
       </c>
@@ -7181,11 +6734,8 @@
       <c r="C21" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>57</v>
       </c>
@@ -7195,11 +6745,8 @@
       <c r="C22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>57</v>
       </c>
@@ -7209,11 +6756,8 @@
       <c r="C23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>57</v>
       </c>
@@ -7223,11 +6767,8 @@
       <c r="C24" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>57</v>
       </c>
@@ -7237,11 +6778,8 @@
       <c r="C25" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>57</v>
       </c>
@@ -7251,11 +6789,8 @@
       <c r="C26" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>57</v>
       </c>
@@ -7265,11 +6800,8 @@
       <c r="C27" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
@@ -7279,11 +6811,8 @@
       <c r="C28" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>57</v>
       </c>
@@ -7293,11 +6822,8 @@
       <c r="C29" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>57</v>
       </c>
@@ -7307,11 +6833,8 @@
       <c r="C30" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>57</v>
       </c>
@@ -7321,11 +6844,8 @@
       <c r="C31" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
@@ -7335,11 +6855,8 @@
       <c r="C32" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>57</v>
       </c>
@@ -7349,11 +6866,8 @@
       <c r="C33" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>57</v>
       </c>
@@ -7363,11 +6877,8 @@
       <c r="C34" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>57</v>
       </c>
@@ -7377,11 +6888,8 @@
       <c r="C35" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>57</v>
       </c>
@@ -7391,11 +6899,8 @@
       <c r="C36" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>57</v>
       </c>
@@ -7405,11 +6910,8 @@
       <c r="C37" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>57</v>
       </c>
@@ -7419,11 +6921,8 @@
       <c r="C38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>57</v>
       </c>
@@ -7433,11 +6932,8 @@
       <c r="C39" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>57</v>
       </c>
@@ -7447,11 +6943,8 @@
       <c r="C40" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>57</v>
       </c>
@@ -7461,11 +6954,8 @@
       <c r="C41" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>57</v>
       </c>
@@ -7475,11 +6965,8 @@
       <c r="C42" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>57</v>
       </c>
@@ -7489,11 +6976,8 @@
       <c r="C43" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>57</v>
       </c>
@@ -7503,11 +6987,8 @@
       <c r="C44" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>57</v>
       </c>
@@ -7517,11 +6998,8 @@
       <c r="C45" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>57</v>
       </c>
@@ -7531,11 +7009,8 @@
       <c r="C46" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>57</v>
       </c>
@@ -7545,11 +7020,8 @@
       <c r="C47" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>57</v>
       </c>
@@ -7559,11 +7031,8 @@
       <c r="C48" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>57</v>
       </c>
@@ -7573,11 +7042,8 @@
       <c r="C49" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>57</v>
       </c>
@@ -7587,11 +7053,8 @@
       <c r="C50" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>57</v>
       </c>
@@ -7601,11 +7064,8 @@
       <c r="C51" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>57</v>
       </c>
@@ -7615,11 +7075,8 @@
       <c r="C52" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>57</v>
       </c>
@@ -7629,11 +7086,8 @@
       <c r="C53" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>57</v>
       </c>
@@ -7643,11 +7097,8 @@
       <c r="C54" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>57</v>
       </c>
@@ -7657,11 +7108,8 @@
       <c r="C55" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>57</v>
       </c>
@@ -7671,11 +7119,8 @@
       <c r="C56" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>57</v>
       </c>
@@ -7685,11 +7130,8 @@
       <c r="C57" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
@@ -7699,11 +7141,8 @@
       <c r="C58" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>57</v>
       </c>
@@ -7713,11 +7152,8 @@
       <c r="C59" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>57</v>
       </c>
@@ -7727,11 +7163,8 @@
       <c r="C60" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>57</v>
       </c>
@@ -7741,11 +7174,8 @@
       <c r="C61" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>57</v>
       </c>
@@ -7755,11 +7185,8 @@
       <c r="C62" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>57</v>
       </c>
@@ -7769,11 +7196,8 @@
       <c r="C63" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>57</v>
       </c>
@@ -7783,11 +7207,8 @@
       <c r="C64" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>57</v>
       </c>
@@ -7797,11 +7218,8 @@
       <c r="C65" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>57</v>
       </c>
@@ -7811,11 +7229,8 @@
       <c r="C66" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>57</v>
       </c>
@@ -7825,11 +7240,8 @@
       <c r="C67" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>57</v>
       </c>
@@ -7839,11 +7251,8 @@
       <c r="C68" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>57</v>
       </c>
@@ -7853,11 +7262,8 @@
       <c r="C69" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>57</v>
       </c>
@@ -7867,11 +7273,8 @@
       <c r="C70" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>57</v>
       </c>
@@ -7881,11 +7284,8 @@
       <c r="C71" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>57</v>
       </c>
@@ -7895,11 +7295,8 @@
       <c r="C72" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>57</v>
       </c>
@@ -7909,11 +7306,8 @@
       <c r="C73" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>57</v>
       </c>
@@ -7923,11 +7317,8 @@
       <c r="C74" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>57</v>
       </c>
@@ -7937,11 +7328,8 @@
       <c r="C75" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>57</v>
       </c>
@@ -7951,11 +7339,8 @@
       <c r="C76" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>57</v>
       </c>
@@ -7965,11 +7350,8 @@
       <c r="C77" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D77" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>57</v>
       </c>
@@ -7979,11 +7361,8 @@
       <c r="C78" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D78" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>57</v>
       </c>
@@ -7993,11 +7372,8 @@
       <c r="C79" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>57</v>
       </c>
@@ -8007,11 +7383,8 @@
       <c r="C80" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>57</v>
       </c>
@@ -8021,11 +7394,8 @@
       <c r="C81" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>57</v>
       </c>
@@ -8035,11 +7405,8 @@
       <c r="C82" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>57</v>
       </c>
@@ -8049,11 +7416,8 @@
       <c r="C83" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D83" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>57</v>
       </c>
@@ -8063,11 +7427,8 @@
       <c r="C84" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
         <v>57</v>
       </c>
@@ -8077,11 +7438,8 @@
       <c r="C85" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D85" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>57</v>
       </c>
@@ -8091,11 +7449,8 @@
       <c r="C86" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>57</v>
       </c>
@@ -8105,11 +7460,8 @@
       <c r="C87" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D87" s="26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>57</v>
       </c>
@@ -8119,11 +7471,8 @@
       <c r="C88" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D88" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>57</v>
       </c>
@@ -8133,11 +7482,8 @@
       <c r="C89" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D89" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>57</v>
       </c>
@@ -8147,11 +7493,8 @@
       <c r="C90" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>57</v>
       </c>
@@ -8161,11 +7504,8 @@
       <c r="C91" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D91" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>57</v>
       </c>
@@ -8175,11 +7515,8 @@
       <c r="C92" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D92" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>57</v>
       </c>
@@ -8189,11 +7526,8 @@
       <c r="C93" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D93" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>57</v>
       </c>
@@ -8203,11 +7537,8 @@
       <c r="C94" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>57</v>
       </c>
@@ -8217,11 +7548,8 @@
       <c r="C95" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>57</v>
       </c>
@@ -8231,11 +7559,8 @@
       <c r="C96" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>57</v>
       </c>
@@ -8245,11 +7570,8 @@
       <c r="C97" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D97" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>57</v>
       </c>
@@ -8259,11 +7581,8 @@
       <c r="C98" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D98" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>57</v>
       </c>
@@ -8273,11 +7592,8 @@
       <c r="C99" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D99" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>57</v>
       </c>
@@ -8287,11 +7603,8 @@
       <c r="C100" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>57</v>
       </c>
@@ -8301,11 +7614,8 @@
       <c r="C101" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D101" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>57</v>
       </c>
@@ -8315,11 +7625,8 @@
       <c r="C102" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D102" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>57</v>
       </c>
@@ -8329,11 +7636,8 @@
       <c r="C103" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D103" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>57</v>
       </c>
@@ -8343,11 +7647,8 @@
       <c r="C104" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>57</v>
       </c>
@@ -8357,11 +7658,8 @@
       <c r="C105" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D105" s="26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>57</v>
       </c>
@@ -8371,11 +7669,8 @@
       <c r="C106" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D106" s="26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>57</v>
       </c>
@@ -8385,11 +7680,8 @@
       <c r="C107" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>57</v>
       </c>
@@ -8399,11 +7691,8 @@
       <c r="C108" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D108" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>57</v>
       </c>
@@ -8413,11 +7702,8 @@
       <c r="C109" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D109" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>57</v>
       </c>
@@ -8427,11 +7713,8 @@
       <c r="C110" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
         <v>57</v>
       </c>
@@ -8441,11 +7724,8 @@
       <c r="C111" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D111" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>57</v>
       </c>
@@ -8455,11 +7735,8 @@
       <c r="C112" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D112" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>57</v>
       </c>
@@ -8469,11 +7746,8 @@
       <c r="C113" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D113" s="26" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>57</v>
       </c>
@@ -8483,11 +7757,8 @@
       <c r="C114" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D114" s="26" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>57</v>
       </c>
@@ -8497,11 +7768,8 @@
       <c r="C115" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="D115" s="26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>57</v>
       </c>
@@ -8511,11 +7779,8 @@
       <c r="C116" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="D116" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>57</v>
       </c>
@@ -8525,11 +7790,8 @@
       <c r="C117" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D117" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>57</v>
       </c>
@@ -8539,11 +7801,8 @@
       <c r="C118" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D118" s="26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>57</v>
       </c>
@@ -8553,11 +7812,8 @@
       <c r="C119" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="D119" s="26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>57</v>
       </c>
@@ -8567,11 +7823,8 @@
       <c r="C120" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D120" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>57</v>
       </c>
@@ -8581,11 +7834,8 @@
       <c r="C121" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D121" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>57</v>
       </c>
@@ -8595,11 +7845,8 @@
       <c r="C122" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D122" s="26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>57</v>
       </c>
@@ -8609,11 +7856,8 @@
       <c r="C123" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="D123" s="26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>57</v>
       </c>
@@ -8623,11 +7867,8 @@
       <c r="C124" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D124" s="26" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>57</v>
       </c>
@@ -8637,11 +7878,8 @@
       <c r="C125" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D125" s="26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>57</v>
       </c>
@@ -8651,11 +7889,8 @@
       <c r="C126" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D126" s="26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>57</v>
       </c>
@@ -8665,11 +7900,8 @@
       <c r="C127" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="D127" s="26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>57</v>
       </c>
@@ -8679,11 +7911,8 @@
       <c r="C128" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="D128" s="26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>57</v>
       </c>
@@ -8693,11 +7922,8 @@
       <c r="C129" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>57</v>
       </c>
@@ -8707,11 +7933,8 @@
       <c r="C130" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="D130" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>57</v>
       </c>
@@ -8721,11 +7944,8 @@
       <c r="C131" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D131" s="26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>57</v>
       </c>
@@ -8735,11 +7955,8 @@
       <c r="C132" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D132" s="26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>57</v>
       </c>
@@ -8749,11 +7966,8 @@
       <c r="C133" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D133" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>57</v>
       </c>
@@ -8763,11 +7977,8 @@
       <c r="C134" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="D134" s="26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>57</v>
       </c>
@@ -8777,11 +7988,8 @@
       <c r="C135" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="D135" s="26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>57</v>
       </c>
@@ -8791,11 +7999,8 @@
       <c r="C136" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="D136" s="26" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
         <v>57</v>
       </c>
@@ -8805,11 +8010,8 @@
       <c r="C137" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="D137" s="26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
         <v>57</v>
       </c>
@@ -8819,11 +8021,8 @@
       <c r="C138" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="D138" s="26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
         <v>57</v>
       </c>
@@ -8833,11 +8032,8 @@
       <c r="C139" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="D139" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
         <v>57</v>
       </c>
@@ -8847,11 +8043,8 @@
       <c r="C140" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D140" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
         <v>57</v>
       </c>
@@ -8861,11 +8054,8 @@
       <c r="C141" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="D141" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
         <v>57</v>
       </c>
@@ -8875,11 +8065,8 @@
       <c r="C142" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="D142" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
         <v>57</v>
       </c>
@@ -8889,11 +8076,8 @@
       <c r="C143" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="D143" s="26" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
         <v>57</v>
       </c>
@@ -8903,11 +8087,8 @@
       <c r="C144" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="D144" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
         <v>57</v>
       </c>
@@ -8917,11 +8098,8 @@
       <c r="C145" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="D145" s="26" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>57</v>
       </c>
@@ -8931,11 +8109,8 @@
       <c r="C146" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="D146" s="26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>57</v>
       </c>
@@ -8945,11 +8120,8 @@
       <c r="C147" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D147" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>57</v>
       </c>
@@ -8959,11 +8131,8 @@
       <c r="C148" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="D148" s="26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
         <v>57</v>
       </c>
@@ -8973,11 +8142,8 @@
       <c r="C149" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="D149" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
         <v>57</v>
       </c>
@@ -8987,11 +8153,8 @@
       <c r="C150" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="D150" s="26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
         <v>57</v>
       </c>
@@ -9001,11 +8164,8 @@
       <c r="C151" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D151" s="26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
         <v>57</v>
       </c>
@@ -9015,11 +8175,8 @@
       <c r="C152" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="D152" s="26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
         <v>57</v>
       </c>
@@ -9029,11 +8186,8 @@
       <c r="C153" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="D153" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
         <v>57</v>
       </c>
@@ -9043,11 +8197,8 @@
       <c r="C154" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="D154" s="26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
         <v>57</v>
       </c>
@@ -9057,11 +8208,8 @@
       <c r="C155" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="D155" s="26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
         <v>57</v>
       </c>
@@ -9071,11 +8219,8 @@
       <c r="C156" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D156" s="26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
         <v>57</v>
       </c>
@@ -9085,11 +8230,8 @@
       <c r="C157" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="D157" s="26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
         <v>57</v>
       </c>
@@ -9099,11 +8241,8 @@
       <c r="C158" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="D158" s="26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
         <v>57</v>
       </c>
@@ -9113,11 +8252,8 @@
       <c r="C159" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D159" s="26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
         <v>57</v>
       </c>
@@ -9127,11 +8263,8 @@
       <c r="C160" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="D160" s="26" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
         <v>57</v>
       </c>
@@ -9141,11 +8274,8 @@
       <c r="C161" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="D161" s="26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
         <v>57</v>
       </c>
@@ -9155,11 +8285,8 @@
       <c r="C162" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="D162" s="26" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
         <v>57</v>
       </c>
@@ -9169,11 +8296,8 @@
       <c r="C163" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="D163" s="26" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
         <v>57</v>
       </c>
@@ -9183,11 +8307,8 @@
       <c r="C164" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="D164" s="26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
         <v>57</v>
       </c>
@@ -9197,11 +8318,8 @@
       <c r="C165" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="D165" s="26" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
         <v>57</v>
       </c>
@@ -9211,11 +8329,8 @@
       <c r="C166" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="D166" s="26" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
         <v>57</v>
       </c>
@@ -9225,11 +8340,8 @@
       <c r="C167" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="D167" s="26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
         <v>57</v>
       </c>
@@ -9239,11 +8351,8 @@
       <c r="C168" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D168" s="26" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
         <v>57</v>
       </c>
@@ -9253,11 +8362,8 @@
       <c r="C169" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="D169" s="26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
         <v>57</v>
       </c>
@@ -9267,11 +8373,8 @@
       <c r="C170" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D170" s="26" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
         <v>57</v>
       </c>
@@ -9281,11 +8384,8 @@
       <c r="C171" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="D171" s="26" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
         <v>57</v>
       </c>
@@ -9295,11 +8395,8 @@
       <c r="C172" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="D172" s="26" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
         <v>57</v>
       </c>
@@ -9309,11 +8406,8 @@
       <c r="C173" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="D173" s="26" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
         <v>57</v>
       </c>
@@ -9323,11 +8417,8 @@
       <c r="C174" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="D174" s="26" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
         <v>57</v>
       </c>
@@ -9337,11 +8428,8 @@
       <c r="C175" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="D175" s="26" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
         <v>57</v>
       </c>
@@ -9351,11 +8439,8 @@
       <c r="C176" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="D176" s="26" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
         <v>57</v>
       </c>
@@ -9365,11 +8450,8 @@
       <c r="C177" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D177" s="26" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
         <v>57</v>
       </c>
@@ -9379,11 +8461,8 @@
       <c r="C178" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="D178" s="26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
         <v>57</v>
       </c>
@@ -9393,11 +8472,8 @@
       <c r="C179" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="D179" s="26" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
         <v>57</v>
       </c>
@@ -9407,11 +8483,8 @@
       <c r="C180" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="D180" s="26" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
         <v>57</v>
       </c>
@@ -9421,11 +8494,8 @@
       <c r="C181" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="D181" s="26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
         <v>57</v>
       </c>
@@ -9435,11 +8505,8 @@
       <c r="C182" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="D182" s="26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
         <v>57</v>
       </c>
@@ -9449,11 +8516,8 @@
       <c r="C183" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D183" s="26" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
         <v>57</v>
       </c>
@@ -9463,11 +8527,8 @@
       <c r="C184" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="D184" s="26" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
         <v>57</v>
       </c>
@@ -9477,11 +8538,8 @@
       <c r="C185" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="D185" s="26" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
         <v>57</v>
       </c>
@@ -9491,11 +8549,8 @@
       <c r="C186" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D186" s="26" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
         <v>57</v>
       </c>
@@ -9505,11 +8560,8 @@
       <c r="C187" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="D187" s="26" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
         <v>57</v>
       </c>
@@ -9519,11 +8571,8 @@
       <c r="C188" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="D188" s="26" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
         <v>57</v>
       </c>
@@ -9533,11 +8582,8 @@
       <c r="C189" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="D189" s="26" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
         <v>57</v>
       </c>
@@ -9547,11 +8593,8 @@
       <c r="C190" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="D190" s="26" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
         <v>57</v>
       </c>
@@ -9561,11 +8604,8 @@
       <c r="C191" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="D191" s="26" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
         <v>57</v>
       </c>
@@ -9575,11 +8615,8 @@
       <c r="C192" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="D192" s="26" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
         <v>57</v>
       </c>
@@ -9589,11 +8626,8 @@
       <c r="C193" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="D193" s="26" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
         <v>57</v>
       </c>
@@ -9603,11 +8637,8 @@
       <c r="C194" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="D194" s="26" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
         <v>57</v>
       </c>
@@ -9617,11 +8648,8 @@
       <c r="C195" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="D195" s="26" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
         <v>57</v>
       </c>
@@ -9631,11 +8659,8 @@
       <c r="C196" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="D196" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
         <v>57</v>
       </c>
@@ -9645,11 +8670,8 @@
       <c r="C197" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="D197" s="26" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="s">
         <v>57</v>
       </c>
@@ -9659,11 +8681,8 @@
       <c r="C198" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="D198" s="26" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
         <v>57</v>
       </c>
@@ -9673,11 +8692,8 @@
       <c r="C199" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="D199" s="26" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
         <v>57</v>
       </c>
@@ -9687,11 +8703,8 @@
       <c r="C200" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="D200" s="26" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
         <v>57</v>
       </c>
@@ -9701,11 +8714,8 @@
       <c r="C201" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="D201" s="26" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
         <v>57</v>
       </c>
@@ -9715,11 +8725,8 @@
       <c r="C202" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="D202" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
         <v>57</v>
       </c>
@@ -9729,11 +8736,8 @@
       <c r="C203" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="D203" s="26" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
         <v>57</v>
       </c>
@@ -9743,11 +8747,8 @@
       <c r="C204" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="D204" s="26" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
         <v>57</v>
       </c>
@@ -9757,11 +8758,8 @@
       <c r="C205" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="D205" s="26" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
         <v>57</v>
       </c>
@@ -9771,11 +8769,8 @@
       <c r="C206" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="D206" s="26" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
         <v>57</v>
       </c>
@@ -9785,11 +8780,8 @@
       <c r="C207" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="D207" s="26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
         <v>57</v>
       </c>
@@ -9799,11 +8791,8 @@
       <c r="C208" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="D208" s="26" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
         <v>57</v>
       </c>
@@ -9813,11 +8802,8 @@
       <c r="C209" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="D209" s="26" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
         <v>57</v>
       </c>
@@ -9827,11 +8813,8 @@
       <c r="C210" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="D210" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
         <v>57</v>
       </c>
@@ -9841,11 +8824,8 @@
       <c r="C211" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="D211" s="26" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
         <v>57</v>
       </c>
@@ -9855,11 +8835,8 @@
       <c r="C212" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="D212" s="26" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
         <v>57</v>
       </c>
@@ -9869,11 +8846,8 @@
       <c r="C213" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="D213" s="26" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
         <v>57</v>
       </c>
@@ -9883,11 +8857,8 @@
       <c r="C214" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="D214" s="26" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
         <v>57</v>
       </c>
@@ -9897,11 +8868,8 @@
       <c r="C215" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="D215" s="26" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
         <v>57</v>
       </c>
@@ -9911,11 +8879,8 @@
       <c r="C216" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="D216" s="26" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
         <v>57</v>
       </c>
@@ -9925,11 +8890,8 @@
       <c r="C217" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="D217" s="26" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="s">
         <v>57</v>
       </c>
@@ -9939,11 +8901,8 @@
       <c r="C218" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="D218" s="26" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="s">
         <v>57</v>
       </c>
@@ -9953,11 +8912,8 @@
       <c r="C219" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="D219" s="26" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="s">
         <v>57</v>
       </c>
@@ -9967,11 +8923,8 @@
       <c r="C220" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="D220" s="26" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
         <v>57</v>
       </c>
@@ -9981,11 +8934,8 @@
       <c r="C221" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="D221" s="26" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
         <v>57</v>
       </c>
@@ -9995,11 +8945,8 @@
       <c r="C222" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="D222" s="26" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="s">
         <v>57</v>
       </c>
@@ -10009,11 +8956,8 @@
       <c r="C223" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="D223" s="26" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
         <v>57</v>
       </c>
@@ -10023,11 +8967,8 @@
       <c r="C224" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="D224" s="26" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
         <v>57</v>
       </c>
@@ -10037,11 +8978,8 @@
       <c r="C225" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="D225" s="26" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
         <v>57</v>
       </c>
@@ -10051,11 +8989,8 @@
       <c r="C226" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="D226" s="26" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
         <v>57</v>
       </c>
@@ -10065,11 +9000,8 @@
       <c r="C227" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="D227" s="26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
         <v>57</v>
       </c>
@@ -10079,11 +9011,8 @@
       <c r="C228" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="D228" s="26" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
         <v>57</v>
       </c>
@@ -10093,11 +9022,8 @@
       <c r="C229" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="D229" s="26" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
         <v>57</v>
       </c>
@@ -10107,11 +9033,8 @@
       <c r="C230" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="D230" s="26" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
         <v>57</v>
       </c>
@@ -10121,11 +9044,8 @@
       <c r="C231" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="D231" s="26" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
         <v>57</v>
       </c>
@@ -10135,11 +9055,8 @@
       <c r="C232" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="D232" s="26" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
         <v>57</v>
       </c>
@@ -10149,11 +9066,8 @@
       <c r="C233" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="D233" s="26" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
         <v>57</v>
       </c>
@@ -10163,11 +9077,8 @@
       <c r="C234" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="D234" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
         <v>57</v>
       </c>
@@ -10177,11 +9088,8 @@
       <c r="C235" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="D235" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
         <v>57</v>
       </c>
@@ -10191,11 +9099,8 @@
       <c r="C236" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="D236" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
         <v>57</v>
       </c>
@@ -10205,11 +9110,8 @@
       <c r="C237" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="D237" s="26" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
         <v>57</v>
       </c>
@@ -10219,11 +9121,8 @@
       <c r="C238" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="D238" s="26" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
         <v>57</v>
       </c>
@@ -10233,11 +9132,8 @@
       <c r="C239" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="D239" s="26" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
         <v>57</v>
       </c>
@@ -10247,11 +9143,8 @@
       <c r="C240" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="D240" s="26" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
         <v>57</v>
       </c>
@@ -10261,11 +9154,8 @@
       <c r="C241" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D241" s="26" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="s">
         <v>57</v>
       </c>
@@ -10275,11 +9165,8 @@
       <c r="C242" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="D242" s="26" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
         <v>57</v>
       </c>
@@ -10289,11 +9176,8 @@
       <c r="C243" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="D243" s="26" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
         <v>57</v>
       </c>
@@ -10303,11 +9187,8 @@
       <c r="C244" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="D244" s="26" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
         <v>57</v>
       </c>
@@ -10317,11 +9198,8 @@
       <c r="C245" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="D245" s="26" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
         <v>57</v>
       </c>
@@ -10331,11 +9209,8 @@
       <c r="C246" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="D246" s="26" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
         <v>57</v>
       </c>
@@ -10345,11 +9220,8 @@
       <c r="C247" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="D247" s="26" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
         <v>57</v>
       </c>
@@ -10359,11 +9231,8 @@
       <c r="C248" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="D248" s="26" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
         <v>57</v>
       </c>
@@ -10373,11 +9242,8 @@
       <c r="C249" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="D249" s="26" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
         <v>57</v>
       </c>
@@ -10387,11 +9253,8 @@
       <c r="C250" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="D250" s="26" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
         <v>57</v>
       </c>
@@ -10401,11 +9264,8 @@
       <c r="C251" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="D251" s="26" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
         <v>57</v>
       </c>
@@ -10415,11 +9275,8 @@
       <c r="C252" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="D252" s="26" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
         <v>57</v>
       </c>
@@ -10429,11 +9286,8 @@
       <c r="C253" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="D253" s="26" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
         <v>57</v>
       </c>
@@ -10443,11 +9297,8 @@
       <c r="C254" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="D254" s="26" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
         <v>57</v>
       </c>
@@ -10456,9 +9307,6 @@
       </c>
       <c r="C255" s="26" t="s">
         <v>592</v>
-      </c>
-      <c r="D255" s="26" t="s">
-        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -10473,7 +9321,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -10537,7 +9385,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44010.832508333333</v>
+        <v>44062.911734027781</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
